--- a/results/Ordered Data.xlsx
+++ b/results/Ordered Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\project-athena\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{27FB9F6C-E18C-4A33-B59A-24F56770B901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A7C93F7-CDDC-4597-B349-792721313D64}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11530786-863E-4E7D-BA08-C8E89DB0FE31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" xr2:uid="{020305A6-F778-4984-84A1-ABAB69C2609E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="2" xr2:uid="{020305A6-F778-4984-84A1-ABAB69C2609E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid" sheetId="1" r:id="rId1"/>
@@ -673,9 +673,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Median Test Error Rate</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -690,26 +687,173 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hybrid!$D$48:$BA$48</c:f>
+              <c:f>Hybrid!$D$23:$BA$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5.8645096056622797E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5611729019211256E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4600606673407402E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5611729019211298E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0050556117290146E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9544994944388202E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8533872598584403E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7522750252780549E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2467138523761355E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4489383215369001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.75227502527805E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3983822042467105E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5500505561172855E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3983822042467105E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2972699696663251E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3872598584428648E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.94337714863498E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0444893832153599E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6400404448938245E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6400404448938245E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0333670374115201E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1850353892820996E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0333670374115197E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9828109201213301E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9828109201213301E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8705763397371053E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9828109201213301E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.51668351870576E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.36501516683518E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3144590495449899E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4155712841253699E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1001011122345803E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.112234580384225E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0111223458038391E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.01112234580384E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.0889787664307298E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.60566228513649E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.5611729019211242E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.0778564206268896E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5945399393326551E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.01112234580384E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.5945399393326447E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.5722952477249696E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.5611729019211303E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.5945399393326447E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0444893832153597E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.0667340748230504E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.550050556117285E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5389282103134396E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.01112234580384E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FC2-4CCB-BFC9-5F632F2829AB}"/>
+              <c16:uniqueId val="{00000001-345E-4E52-A647-01401547062F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Median PGD-ADT Error Rate</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -724,17 +868,167 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hybrid!$D$49:$BA$49</c:f>
+              <c:f>Hybrid!$D$24:$BA$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8FC2-4CCB-BFC9-5F632F2829AB}"/>
+              <c16:uniqueId val="{00000003-345E-4E52-A647-01401547062F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -747,11 +1041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="18294343"/>
-        <c:axId val="1538953672"/>
+        <c:axId val="687203463"/>
+        <c:axId val="1374853256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18294343"/>
+        <c:axId val="687203463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +1087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1538953672"/>
+        <c:crossAx val="1374853256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -801,7 +1095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1538953672"/>
+        <c:axId val="1374853256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +1146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18294343"/>
+        <c:crossAx val="687203463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -967,6 +1261,643 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Median Error Rates from Lowest to Highest CNN to SVM Ratio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Median Test Error Rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hybrid!$D$23:$BA$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5.8645096056622797E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5611729019211256E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4600606673407402E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5611729019211298E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0050556117290146E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9544994944388202E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8533872598584403E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7522750252780549E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2467138523761355E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4489383215369001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.75227502527805E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3983822042467105E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5500505561172855E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3983822042467105E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2972699696663251E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3872598584428648E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.94337714863498E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0444893832153599E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6400404448938245E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6400404448938245E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0333670374115201E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1850353892820996E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0333670374115197E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9828109201213301E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9828109201213301E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8705763397371053E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9828109201213301E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.51668351870576E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.36501516683518E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3144590495449899E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4155712841253699E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1001011122345803E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.112234580384225E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0111223458038391E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.01112234580384E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.0889787664307298E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.60566228513649E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.5611729019211242E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.0778564206268896E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5945399393326551E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.01112234580384E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.5945399393326447E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.5722952477249696E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.5611729019211303E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.5945399393326447E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0444893832153597E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.0667340748230504E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.550050556117285E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5389282103134396E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.01112234580384E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D288-4581-8827-CE944CA5F537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Median PGD-ADT Error Rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hybrid!$D$24:$BA$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5278058645096E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D288-4581-8827-CE944CA5F537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="687203463"/>
+        <c:axId val="1374853256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="687203463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374853256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1374853256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687203463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Average Time in Minutes Per Test from Lowest to Highest CNN to SVM Ratio</a:t>
             </a:r>
           </a:p>
@@ -1026,7 +1957,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Hybrid!$D$46:$BA$46</c:f>
+              <c:f>Hybrid!$D$47:$BA$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1425,6 +2356,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1981,6 +2952,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2487,6 +3974,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E07DD5-C75F-4FCF-9498-662CB95D6217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2494,16 +4022,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A0012D-A3F6-4F88-94FD-6DBC71C19BD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEDDD27-0511-4812-959C-81ED4FDDCAD9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{90A0012D-A3F6-4F88-94FD-6DBC71C19BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +4057,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2866,10 +4397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AF8C9C-7B73-4240-9BB9-D32E4C28AAB4}">
-  <dimension ref="A1:BD46"/>
+  <dimension ref="A1:BD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A6" zoomScale="102" workbookViewId="0">
+      <selection activeCell="BA24" sqref="D23:BA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6755,3746 +8286,3948 @@
       </c>
     </row>
     <row r="24" spans="1:56" ht="15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
+      <c r="D24">
+        <f>$C$23</f>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:BA24" si="1">$C$23</f>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="1"/>
+        <v>2.5278058645096E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:56" ht="15">
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD25" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
     </row>
     <row r="26" spans="1:56" ht="15">
-      <c r="A26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="1">
-        <v>220.03745436668299</v>
-      </c>
-      <c r="E26" s="1">
-        <v>408.22903132438603</v>
-      </c>
-      <c r="F26" s="1">
-        <v>466.04702663421602</v>
-      </c>
-      <c r="G26" s="1">
-        <v>182.42899274825999</v>
-      </c>
-      <c r="H26" s="1">
-        <v>635.90332746505703</v>
-      </c>
-      <c r="I26" s="1">
-        <v>2367.7505023479398</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1654.7640628814599</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1717.21041703224</v>
-      </c>
-      <c r="L26" s="1">
-        <v>245.124697208404</v>
-      </c>
-      <c r="M26" s="1">
-        <v>165.24221706390301</v>
-      </c>
-      <c r="N26" s="1">
-        <v>222.23373055458001</v>
-      </c>
-      <c r="O26" s="1">
-        <v>182.133120536804</v>
-      </c>
-      <c r="P26" s="1">
-        <v>328.69162917137101</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>213.53810572624201</v>
-      </c>
-      <c r="R26" s="1">
-        <v>163.460529088974</v>
-      </c>
-      <c r="S26" s="1">
-        <v>503.30054974555901</v>
-      </c>
-      <c r="T26" s="1">
-        <v>207.28952121734599</v>
-      </c>
-      <c r="U26" s="1">
-        <v>124.89869117736799</v>
-      </c>
-      <c r="V26" s="1">
-        <v>199.68612623214699</v>
-      </c>
-      <c r="W26" s="1">
-        <v>171.46180701255699</v>
-      </c>
-      <c r="X26" s="1">
-        <v>153.35187625885001</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>3875.1045000553099</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>194.13613343238799</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>165.770680665969</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>118.050575971603</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>182.59151840209901</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>154.68734240531899</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>173.561933517456</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>134.23645472526499</v>
-      </c>
-      <c r="AG26" s="1">
-        <v>1565.24476122856</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>1769.56823921203</v>
-      </c>
-      <c r="AI26" s="1">
-        <v>145.714879274368</v>
-      </c>
-      <c r="AJ26" s="1">
-        <v>75.097905397415104</v>
-      </c>
-      <c r="AK26" s="1">
-        <v>1706.3406643867399</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>118.695303201675</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>56.1913192272186</v>
-      </c>
-      <c r="AN26" s="1">
-        <v>1658.5105626583099</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>134.64511728286701</v>
-      </c>
-      <c r="AP26" s="1">
-        <v>101.230502367019</v>
-      </c>
-      <c r="AQ26" s="1">
-        <v>119.229429483413</v>
-      </c>
-      <c r="AR26" s="1">
-        <v>119.052592754364</v>
-      </c>
-      <c r="AS26" s="1">
-        <v>140.782743930816</v>
-      </c>
-      <c r="AT26" s="1">
-        <v>2089.1626591682402</v>
-      </c>
-      <c r="AU26" s="1">
-        <v>73.015256643295203</v>
-      </c>
-      <c r="AV26" s="1">
-        <v>2193.30579447746</v>
-      </c>
-      <c r="AW26" s="1">
-        <v>77.971943378448401</v>
-      </c>
-      <c r="AX26" s="1">
-        <v>248.88303756713799</v>
-      </c>
-      <c r="AY26" s="1">
-        <v>1457.9202857017499</v>
-      </c>
-      <c r="AZ26" s="1">
-        <v>202.57355260848999</v>
-      </c>
-      <c r="BA26" s="1">
-        <v>54.673561096191399</v>
-      </c>
-      <c r="BB26">
-        <f>AVERAGE(D26:AZ26)</f>
-        <v>603.75630826366069</v>
-      </c>
-      <c r="BC26">
-        <f>BB26/60</f>
-        <v>10.062605137727678</v>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD26" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:56" ht="15">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1">
-        <v>222.29003071784899</v>
+        <v>220.03745436668299</v>
       </c>
       <c r="E27" s="1">
-        <v>407.56414937973</v>
+        <v>408.22903132438603</v>
       </c>
       <c r="F27" s="1">
-        <v>464.72167038917502</v>
+        <v>466.04702663421602</v>
       </c>
       <c r="G27" s="1">
-        <v>181.53279161453199</v>
+        <v>182.42899274825999</v>
       </c>
       <c r="H27" s="1">
-        <v>626.76581168174698</v>
+        <v>635.90332746505703</v>
       </c>
       <c r="I27" s="1">
-        <v>2364.30923342704</v>
+        <v>2367.7505023479398</v>
       </c>
       <c r="J27" s="1">
-        <v>1672.9707043170899</v>
+        <v>1654.7640628814599</v>
       </c>
       <c r="K27" s="1">
-        <v>1712.52533483505</v>
+        <v>1717.21041703224</v>
       </c>
       <c r="L27" s="1">
-        <v>242.042933225631</v>
+        <v>245.124697208404</v>
       </c>
       <c r="M27" s="1">
-        <v>160.07203602790801</v>
+        <v>165.24221706390301</v>
       </c>
       <c r="N27" s="1">
-        <v>218.572834730148</v>
+        <v>222.23373055458001</v>
       </c>
       <c r="O27" s="1">
-        <v>173.691002368927</v>
+        <v>182.133120536804</v>
       </c>
       <c r="P27" s="1">
-        <v>319.47771286964399</v>
+        <v>328.69162917137101</v>
       </c>
       <c r="Q27" s="1">
-        <v>213.83213520050001</v>
+        <v>213.53810572624201</v>
       </c>
       <c r="R27" s="1">
-        <v>158.95184445381099</v>
+        <v>163.460529088974</v>
       </c>
       <c r="S27" s="1">
-        <v>492.66224074363703</v>
+        <v>503.30054974555901</v>
       </c>
       <c r="T27" s="1">
-        <v>166.13187384605399</v>
+        <v>207.28952121734599</v>
       </c>
       <c r="U27" s="1">
-        <v>123.61762261390599</v>
+        <v>124.89869117736799</v>
       </c>
       <c r="V27" s="1">
-        <v>195.47179627418501</v>
+        <v>199.68612623214699</v>
       </c>
       <c r="W27" s="1">
-        <v>169.26886248588499</v>
+        <v>171.46180701255699</v>
       </c>
       <c r="X27" s="1">
-        <v>149.45939874649</v>
+        <v>153.35187625885001</v>
       </c>
       <c r="Y27" s="1">
-        <v>3835.2782664299002</v>
+        <v>3875.1045000553099</v>
       </c>
       <c r="Z27" s="1">
-        <v>205.27640461921601</v>
+        <v>194.13613343238799</v>
       </c>
       <c r="AA27" s="1">
-        <v>152.08633494377099</v>
+        <v>165.770680665969</v>
       </c>
       <c r="AB27" s="1">
-        <v>109.802623748779</v>
+        <v>118.050575971603</v>
       </c>
       <c r="AC27" s="1">
-        <v>168.622672080993</v>
+        <v>182.59151840209901</v>
       </c>
       <c r="AD27" s="1">
-        <v>150.17812609672501</v>
+        <v>154.68734240531899</v>
       </c>
       <c r="AE27" s="1">
-        <v>152.91966199874801</v>
+        <v>173.561933517456</v>
       </c>
       <c r="AF27" s="1">
-        <v>124.621935367584</v>
+        <v>134.23645472526499</v>
       </c>
       <c r="AG27" s="1">
-        <v>1597.8142130374899</v>
+        <v>1565.24476122856</v>
       </c>
       <c r="AH27" s="1">
-        <v>1746.40262365341</v>
+        <v>1769.56823921203</v>
       </c>
       <c r="AI27" s="1">
-        <v>119.83166384696899</v>
+        <v>145.714879274368</v>
       </c>
       <c r="AJ27" s="1">
-        <v>58.925210237503002</v>
+        <v>75.097905397415104</v>
       </c>
       <c r="AK27" s="1">
-        <v>1677.0148279666901</v>
+        <v>1706.3406643867399</v>
       </c>
       <c r="AL27" s="1">
-        <v>97.731507301330495</v>
+        <v>118.695303201675</v>
       </c>
       <c r="AM27" s="1">
-        <v>51.894020795822101</v>
+        <v>56.1913192272186</v>
       </c>
       <c r="AN27" s="1">
-        <v>1622.4570639133401</v>
+        <v>1658.5105626583099</v>
       </c>
       <c r="AO27" s="1">
-        <v>128.08164858818</v>
+        <v>134.64511728286701</v>
       </c>
       <c r="AP27" s="1">
-        <v>92.280758142471299</v>
+        <v>101.230502367019</v>
       </c>
       <c r="AQ27" s="1">
-        <v>108.89906525611801</v>
+        <v>119.229429483413</v>
       </c>
       <c r="AR27" s="1">
-        <v>129.46266722679101</v>
+        <v>119.052592754364</v>
       </c>
       <c r="AS27" s="1">
-        <v>101.201553106307</v>
+        <v>140.782743930816</v>
       </c>
       <c r="AT27" s="1">
-        <v>2092.1691162586199</v>
+        <v>2089.1626591682402</v>
       </c>
       <c r="AU27" s="1">
-        <v>53.263620138168299</v>
+        <v>73.015256643295203</v>
       </c>
       <c r="AV27" s="1">
-        <v>2074.1280310153902</v>
+        <v>2193.30579447746</v>
       </c>
       <c r="AW27" s="1">
-        <v>59.305276870727504</v>
+        <v>77.971943378448401</v>
       </c>
       <c r="AX27" s="1">
-        <v>222.096985101699</v>
+        <v>248.88303756713799</v>
       </c>
       <c r="AY27" s="1">
-        <v>1447.1860897541001</v>
+        <v>1457.9202857017499</v>
       </c>
       <c r="AZ27" s="1">
-        <v>168.31582140922501</v>
+        <v>202.57355260848999</v>
       </c>
       <c r="BA27" s="1">
-        <v>35.438788890838602</v>
+        <v>54.673561096191399</v>
       </c>
       <c r="BB27">
         <f>AVERAGE(D27:AZ27)</f>
-        <v>591.49346548683718</v>
+        <v>603.75630826366069</v>
       </c>
       <c r="BC27">
-        <f t="shared" ref="BC26:BC43" si="1">BB27/60</f>
-        <v>9.8582244247806194</v>
+        <f>BB27/60</f>
+        <v>10.062605137727678</v>
       </c>
     </row>
     <row r="28" spans="1:56" ht="15">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>220.07110476493801</v>
+        <v>222.29003071784899</v>
       </c>
       <c r="E28" s="1">
-        <v>408.38845443725501</v>
+        <v>407.56414937973</v>
       </c>
       <c r="F28" s="1">
-        <v>464.72823905944801</v>
+        <v>464.72167038917502</v>
       </c>
       <c r="G28" s="1">
-        <v>182.06491112709</v>
+        <v>181.53279161453199</v>
       </c>
       <c r="H28" s="1">
-        <v>612.61434841155994</v>
+        <v>626.76581168174698</v>
       </c>
       <c r="I28" s="1">
-        <v>2363.1111664772002</v>
+        <v>2364.30923342704</v>
       </c>
       <c r="J28" s="1">
-        <v>1719.1296598911199</v>
+        <v>1672.9707043170899</v>
       </c>
       <c r="K28" s="1">
-        <v>1711.4616582393601</v>
+        <v>1712.52533483505</v>
       </c>
       <c r="L28" s="1">
-        <v>242.63895726203901</v>
+        <v>242.042933225631</v>
       </c>
       <c r="M28" s="1">
-        <v>159.93993353843601</v>
+        <v>160.07203602790801</v>
       </c>
       <c r="N28" s="1">
-        <v>220.86860060691799</v>
+        <v>218.572834730148</v>
       </c>
       <c r="O28" s="1">
-        <v>174.46852111816401</v>
+        <v>173.691002368927</v>
       </c>
       <c r="P28" s="1">
-        <v>330.54807591438203</v>
+        <v>319.47771286964399</v>
       </c>
       <c r="Q28" s="1">
-        <v>212.312203407287</v>
+        <v>213.83213520050001</v>
       </c>
       <c r="R28" s="1">
-        <v>158.98025226593001</v>
+        <v>158.95184445381099</v>
       </c>
       <c r="S28" s="1">
-        <v>492.31554126739502</v>
+        <v>492.66224074363703</v>
       </c>
       <c r="T28" s="1">
-        <v>170.81203413009601</v>
+        <v>166.13187384605399</v>
       </c>
       <c r="U28" s="1">
-        <v>126.320863246917</v>
+        <v>123.61762261390599</v>
       </c>
       <c r="V28" s="1">
-        <v>194.970591068267</v>
+        <v>195.47179627418501</v>
       </c>
       <c r="W28" s="1">
-        <v>166.91504240035999</v>
+        <v>169.26886248588499</v>
       </c>
       <c r="X28" s="1">
-        <v>147.87480926513601</v>
+        <v>149.45939874649</v>
       </c>
       <c r="Y28" s="1">
-        <v>3825.9643497467</v>
+        <v>3835.2782664299002</v>
       </c>
       <c r="Z28" s="1">
-        <v>220.50850248336701</v>
+        <v>205.27640461921601</v>
       </c>
       <c r="AA28" s="1">
-        <v>151.550709247589</v>
+        <v>152.08633494377099</v>
       </c>
       <c r="AB28" s="1">
-        <v>110.21785521507201</v>
+        <v>109.802623748779</v>
       </c>
       <c r="AC28" s="1">
-        <v>168.14930486679</v>
+        <v>168.622672080993</v>
       </c>
       <c r="AD28" s="1">
-        <v>149.99609708785999</v>
+        <v>150.17812609672501</v>
       </c>
       <c r="AE28" s="1">
-        <v>151.85825586318899</v>
+        <v>152.91966199874801</v>
       </c>
       <c r="AF28" s="1">
-        <v>124.67046046257001</v>
+        <v>124.621935367584</v>
       </c>
       <c r="AG28" s="1">
-        <v>1598.6468427181201</v>
+        <v>1597.8142130374899</v>
       </c>
       <c r="AH28" s="1">
-        <v>1739.82370567321</v>
+        <v>1746.40262365341</v>
       </c>
       <c r="AI28" s="1">
-        <v>120.110428810119</v>
+        <v>119.83166384696899</v>
       </c>
       <c r="AJ28" s="1">
-        <v>59.109372615814202</v>
+        <v>58.925210237503002</v>
       </c>
       <c r="AK28" s="1">
-        <v>1677.5140631198799</v>
+        <v>1677.0148279666901</v>
       </c>
       <c r="AL28" s="1">
-        <v>97.856436967849703</v>
+        <v>97.731507301330495</v>
       </c>
       <c r="AM28" s="1">
-        <v>51.956574678420999</v>
+        <v>51.894020795822101</v>
       </c>
       <c r="AN28" s="1">
-        <v>1614.0695974826799</v>
+        <v>1622.4570639133401</v>
       </c>
       <c r="AO28" s="1">
-        <v>141.765632152557</v>
+        <v>128.08164858818</v>
       </c>
       <c r="AP28" s="1">
-        <v>92.878066539764006</v>
+        <v>92.280758142471299</v>
       </c>
       <c r="AQ28" s="1">
-        <v>108.48124980926499</v>
+        <v>108.89906525611801</v>
       </c>
       <c r="AR28" s="1">
-        <v>103.074061870574</v>
+        <v>129.46266722679101</v>
       </c>
       <c r="AS28" s="1">
-        <v>101.453325510025</v>
+        <v>101.201553106307</v>
       </c>
       <c r="AT28" s="1">
-        <v>2084.5667452812099</v>
+        <v>2092.1691162586199</v>
       </c>
       <c r="AU28" s="1">
-        <v>51.007333040237398</v>
+        <v>53.263620138168299</v>
       </c>
       <c r="AV28" s="1">
-        <v>2049.2178270816798</v>
+        <v>2074.1280310153902</v>
       </c>
       <c r="AW28" s="1">
-        <v>59.000340938568101</v>
+        <v>59.305276870727504</v>
       </c>
       <c r="AX28" s="1">
-        <v>222.24675917625399</v>
+        <v>222.096985101699</v>
       </c>
       <c r="AY28" s="1">
-        <v>1446.81796574592</v>
+        <v>1447.1860897541001</v>
       </c>
       <c r="AZ28" s="1">
-        <v>168.601885557174</v>
+        <v>168.31582140922501</v>
       </c>
       <c r="BA28" s="1">
-        <v>35.310160875320399</v>
+        <v>35.438788890838602</v>
       </c>
       <c r="BB28">
         <f>AVERAGE(D28:AZ28)</f>
-        <v>591.25813709472993</v>
+        <v>591.49346548683718</v>
       </c>
       <c r="BC28">
-        <f t="shared" si="1"/>
-        <v>9.8543022849121655</v>
+        <f t="shared" ref="BC27:BC44" si="2">BB28/60</f>
+        <v>9.8582244247806194</v>
       </c>
     </row>
     <row r="29" spans="1:56" ht="15">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="1">
-        <v>220.15770792961101</v>
+        <v>220.07110476493801</v>
       </c>
       <c r="E29" s="1">
-        <v>409.29846858978198</v>
+        <v>408.38845443725501</v>
       </c>
       <c r="F29" s="1">
-        <v>464.68822908401398</v>
+        <v>464.72823905944801</v>
       </c>
       <c r="G29" s="1">
-        <v>182.899098634719</v>
+        <v>182.06491112709</v>
       </c>
       <c r="H29" s="1">
-        <v>613.07508349418595</v>
+        <v>612.61434841155994</v>
       </c>
       <c r="I29" s="1">
-        <v>2364.9050812721198</v>
+        <v>2363.1111664772002</v>
       </c>
       <c r="J29" s="1">
-        <v>1759.4298017024901</v>
+        <v>1719.1296598911199</v>
       </c>
       <c r="K29" s="1">
-        <v>1712.4096224308</v>
+        <v>1711.4616582393601</v>
       </c>
       <c r="L29" s="1">
-        <v>242.82610487937899</v>
+        <v>242.63895726203901</v>
       </c>
       <c r="M29" s="1">
-        <v>159.88493037223799</v>
+        <v>159.93993353843601</v>
       </c>
       <c r="N29" s="1">
-        <v>219.091953039169</v>
+        <v>220.86860060691799</v>
       </c>
       <c r="O29" s="1">
-        <v>176.12832570075901</v>
+        <v>174.46852111816401</v>
       </c>
       <c r="P29" s="1">
-        <v>314.221979618072</v>
+        <v>330.54807591438203</v>
       </c>
       <c r="Q29" s="1">
-        <v>239.15617394447301</v>
+        <v>212.312203407287</v>
       </c>
       <c r="R29" s="1">
-        <v>159.51025247573801</v>
+        <v>158.98025226593001</v>
       </c>
       <c r="S29" s="1">
-        <v>492.23406124114899</v>
+        <v>492.31554126739502</v>
       </c>
       <c r="T29" s="1">
-        <v>170.440454483032</v>
+        <v>170.81203413009601</v>
       </c>
       <c r="U29" s="1">
-        <v>126.631733655929</v>
+        <v>126.320863246917</v>
       </c>
       <c r="V29" s="1">
-        <v>194.92196345329199</v>
+        <v>194.970591068267</v>
       </c>
       <c r="W29" s="1">
-        <v>166.83263802528299</v>
+        <v>166.91504240035999</v>
       </c>
       <c r="X29" s="1">
-        <v>149.56340646743701</v>
+        <v>147.87480926513601</v>
       </c>
       <c r="Y29" s="1">
-        <v>3839.7286717891602</v>
+        <v>3825.9643497467</v>
       </c>
       <c r="Z29" s="1">
-        <v>215.707197904586</v>
+        <v>220.50850248336701</v>
       </c>
       <c r="AA29" s="1">
-        <v>154.09388256072901</v>
+        <v>151.550709247589</v>
       </c>
       <c r="AB29" s="1">
-        <v>109.999701738357</v>
+        <v>110.21785521507201</v>
       </c>
       <c r="AC29" s="1">
-        <v>169.04915499687101</v>
+        <v>168.14930486679</v>
       </c>
       <c r="AD29" s="1">
-        <v>151.57231211662199</v>
+        <v>149.99609708785999</v>
       </c>
       <c r="AE29" s="1">
-        <v>153.94215750694201</v>
+        <v>151.85825586318899</v>
       </c>
       <c r="AF29" s="1">
-        <v>124.78755021095201</v>
+        <v>124.67046046257001</v>
       </c>
       <c r="AG29" s="1">
-        <v>1583.5034267902299</v>
+        <v>1598.6468427181201</v>
       </c>
       <c r="AH29" s="1">
-        <v>1765.24073696136</v>
+        <v>1739.82370567321</v>
       </c>
       <c r="AI29" s="1">
-        <v>119.913326978683</v>
+        <v>120.110428810119</v>
       </c>
       <c r="AJ29" s="1">
-        <v>58.996166467666598</v>
+        <v>59.109372615814202</v>
       </c>
       <c r="AK29" s="1">
-        <v>1677.75864696502</v>
+        <v>1677.5140631198799</v>
       </c>
       <c r="AL29" s="1">
-        <v>97.304558515548706</v>
+        <v>97.856436967849703</v>
       </c>
       <c r="AM29" s="1">
-        <v>51.8940813541412</v>
+        <v>51.956574678420999</v>
       </c>
       <c r="AN29" s="1">
-        <v>1621.1975030899</v>
+        <v>1614.0695974826799</v>
       </c>
       <c r="AO29" s="1">
-        <v>125.510257482528</v>
+        <v>141.765632152557</v>
       </c>
       <c r="AP29" s="1">
-        <v>92.057837724685598</v>
+        <v>92.878066539764006</v>
       </c>
       <c r="AQ29" s="1">
-        <v>110.729195594787</v>
+        <v>108.48124980926499</v>
       </c>
       <c r="AR29" s="1">
-        <v>103.539782762527</v>
+        <v>103.074061870574</v>
       </c>
       <c r="AS29" s="1">
-        <v>101.782147884368</v>
+        <v>101.453325510025</v>
       </c>
       <c r="AT29" s="1">
-        <v>2077.6954960823</v>
+        <v>2084.5667452812099</v>
       </c>
       <c r="AU29" s="1">
-        <v>50.733648300170898</v>
+        <v>51.007333040237398</v>
       </c>
       <c r="AV29" s="1">
-        <v>2054.0399646759001</v>
+        <v>2049.2178270816798</v>
       </c>
       <c r="AW29" s="1">
-        <v>61.496538162231403</v>
+        <v>59.000340938568101</v>
       </c>
       <c r="AX29" s="1">
-        <v>222.36935853958099</v>
+        <v>222.24675917625399</v>
       </c>
       <c r="AY29" s="1">
-        <v>1445.96061086654</v>
+        <v>1446.81796574592</v>
       </c>
       <c r="AZ29" s="1">
-        <v>169.18901777267399</v>
+        <v>168.601885557174</v>
       </c>
       <c r="BA29" s="1">
-        <v>35.813666343688901</v>
+        <v>35.310160875320399</v>
       </c>
       <c r="BB29">
         <f>AVERAGE(D29:AZ29)</f>
-        <v>592.8183673936478</v>
+        <v>591.25813709472993</v>
       </c>
       <c r="BC29">
-        <f t="shared" si="1"/>
-        <v>9.8803061232274629</v>
+        <f t="shared" si="2"/>
+        <v>9.8543022849121655</v>
       </c>
     </row>
     <row r="30" spans="1:56" ht="15">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="1">
-        <v>222.981172561645</v>
+        <v>220.15770792961101</v>
       </c>
       <c r="E30" s="1">
-        <v>409.30011057853699</v>
+        <v>409.29846858978198</v>
       </c>
       <c r="F30" s="1">
-        <v>469.39034175872803</v>
+        <v>464.68822908401398</v>
       </c>
       <c r="G30" s="1">
-        <v>182.322968721389</v>
+        <v>182.899098634719</v>
       </c>
       <c r="H30" s="1">
-        <v>612.81805539131096</v>
+        <v>613.07508349418595</v>
       </c>
       <c r="I30" s="1">
-        <v>2365.35981583595</v>
+        <v>2364.9050812721198</v>
       </c>
       <c r="J30" s="1">
-        <v>1772.93345761299</v>
+        <v>1759.4298017024901</v>
       </c>
       <c r="K30" s="1">
-        <v>1710.8698546886401</v>
+        <v>1712.4096224308</v>
       </c>
       <c r="L30" s="1">
-        <v>242.85379767417899</v>
+        <v>242.82610487937899</v>
       </c>
       <c r="M30" s="1">
-        <v>159.84194540977401</v>
+        <v>159.88493037223799</v>
       </c>
       <c r="N30" s="1">
-        <v>220.293693065643</v>
+        <v>219.091953039169</v>
       </c>
       <c r="O30" s="1">
-        <v>174.21151781082099</v>
+        <v>176.12832570075901</v>
       </c>
       <c r="P30" s="1">
-        <v>313.63413357734601</v>
+        <v>314.221979618072</v>
       </c>
       <c r="Q30" s="1">
-        <v>227.56173610687199</v>
+        <v>239.15617394447301</v>
       </c>
       <c r="R30" s="1">
-        <v>169.511338710784</v>
+        <v>159.51025247573801</v>
       </c>
       <c r="S30" s="1">
-        <v>492.76816582679697</v>
+        <v>492.23406124114899</v>
       </c>
       <c r="T30" s="1">
-        <v>165.40044617652799</v>
+        <v>170.440454483032</v>
       </c>
       <c r="U30" s="1">
-        <v>126.27401566505399</v>
+        <v>126.631733655929</v>
       </c>
       <c r="V30" s="1">
-        <v>195.137885093688</v>
+        <v>194.92196345329199</v>
       </c>
       <c r="W30" s="1">
-        <v>211.37514328956601</v>
+        <v>166.83263802528299</v>
       </c>
       <c r="X30" s="1">
-        <v>148.75400972366299</v>
+        <v>149.56340646743701</v>
       </c>
       <c r="Y30" s="1">
-        <v>3693.5278797149599</v>
+        <v>3839.7286717891602</v>
       </c>
       <c r="Z30" s="1">
-        <v>217.86630320549</v>
+        <v>215.707197904586</v>
       </c>
       <c r="AA30" s="1">
-        <v>151.84692931175201</v>
+        <v>154.09388256072901</v>
       </c>
       <c r="AB30" s="1">
-        <v>110.53480482101401</v>
+        <v>109.999701738357</v>
       </c>
       <c r="AC30" s="1">
-        <v>169.246480703353</v>
+        <v>169.04915499687101</v>
       </c>
       <c r="AD30" s="1">
-        <v>151.273432254791</v>
+        <v>151.57231211662199</v>
       </c>
       <c r="AE30" s="1">
-        <v>154.73580813407801</v>
+        <v>153.94215750694201</v>
       </c>
       <c r="AF30" s="1">
-        <v>124.57375454902601</v>
+        <v>124.78755021095201</v>
       </c>
       <c r="AG30" s="1">
-        <v>1448.51051998138</v>
+        <v>1583.5034267902299</v>
       </c>
       <c r="AH30" s="1">
-        <v>1756.5593333244301</v>
+        <v>1765.24073696136</v>
       </c>
       <c r="AI30" s="1">
-        <v>120.36346554756101</v>
+        <v>119.913326978683</v>
       </c>
       <c r="AJ30" s="1">
-        <v>59.1252856254577</v>
+        <v>58.996166467666598</v>
       </c>
       <c r="AK30" s="1">
-        <v>1679.52250838279</v>
+        <v>1677.75864696502</v>
       </c>
       <c r="AL30" s="1">
-        <v>97.411692142486501</v>
+        <v>97.304558515548706</v>
       </c>
       <c r="AM30" s="1">
-        <v>51.909696102142298</v>
+        <v>51.8940813541412</v>
       </c>
       <c r="AN30" s="1">
-        <v>1574.4062616825099</v>
+        <v>1621.1975030899</v>
       </c>
       <c r="AO30" s="1">
-        <v>125.56602859497001</v>
+        <v>125.510257482528</v>
       </c>
       <c r="AP30" s="1">
-        <v>92.732114791870103</v>
+        <v>92.057837724685598</v>
       </c>
       <c r="AQ30" s="1">
-        <v>108.91557192802399</v>
+        <v>110.729195594787</v>
       </c>
       <c r="AR30" s="1">
-        <v>104.15179395675599</v>
+        <v>103.539782762527</v>
       </c>
       <c r="AS30" s="1">
-        <v>101.92251443862899</v>
+        <v>101.782147884368</v>
       </c>
       <c r="AT30" s="1">
-        <v>2069.1233792304902</v>
+        <v>2077.6954960823</v>
       </c>
       <c r="AU30" s="1">
-        <v>50.154506444931002</v>
+        <v>50.733648300170898</v>
       </c>
       <c r="AV30" s="1">
-        <v>2053.4322702884601</v>
+        <v>2054.0399646759001</v>
       </c>
       <c r="AW30" s="1">
-        <v>58.856233358383101</v>
+        <v>61.496538162231403</v>
       </c>
       <c r="AX30" s="1">
-        <v>222.49288654327299</v>
+        <v>222.36935853958099</v>
       </c>
       <c r="AY30" s="1">
-        <v>1445.2244222164099</v>
+        <v>1445.96061086654</v>
       </c>
       <c r="AZ30" s="1">
-        <v>169.16601252555799</v>
+        <v>169.18901777267399</v>
       </c>
       <c r="BA30" s="1">
-        <v>35.652175903320298</v>
+        <v>35.813666343688901</v>
       </c>
       <c r="BB30">
         <f>AVERAGE(D30:AZ30)</f>
-        <v>586.87235704246712</v>
+        <v>592.8183673936478</v>
       </c>
       <c r="BC30">
-        <f t="shared" si="1"/>
-        <v>9.7812059507077844</v>
+        <f t="shared" si="2"/>
+        <v>9.8803061232274629</v>
       </c>
     </row>
     <row r="31" spans="1:56" ht="15">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="1">
-        <v>220.47507143020599</v>
+        <v>222.981172561645</v>
       </c>
       <c r="E31" s="1">
-        <v>407.39138436317398</v>
+        <v>409.30011057853699</v>
       </c>
       <c r="F31" s="1">
-        <v>474.29367375373801</v>
+        <v>469.39034175872803</v>
       </c>
       <c r="G31" s="1">
-        <v>182.24475884437501</v>
+        <v>182.322968721389</v>
       </c>
       <c r="H31" s="1">
-        <v>610.71981310844399</v>
+        <v>612.81805539131096</v>
       </c>
       <c r="I31" s="1">
-        <v>2364.2653758525798</v>
+        <v>2365.35981583595</v>
       </c>
       <c r="J31" s="1">
-        <v>1733.3519804477601</v>
+        <v>1772.93345761299</v>
       </c>
       <c r="K31" s="1">
-        <v>1712.52536797523</v>
+        <v>1710.8698546886401</v>
       </c>
       <c r="L31" s="1">
-        <v>241.997003793716</v>
+        <v>242.85379767417899</v>
       </c>
       <c r="M31" s="1">
-        <v>159.93091034889201</v>
+        <v>159.84194540977401</v>
       </c>
       <c r="N31" s="1">
-        <v>220.983724117279</v>
+        <v>220.293693065643</v>
       </c>
       <c r="O31" s="1">
-        <v>175.18329000473</v>
+        <v>174.21151781082099</v>
       </c>
       <c r="P31" s="1">
-        <v>312.37191867828301</v>
+        <v>313.63413357734601</v>
       </c>
       <c r="Q31" s="1">
-        <v>194.86415624618499</v>
+        <v>227.56173610687199</v>
       </c>
       <c r="R31" s="1">
-        <v>159.96956992149299</v>
+        <v>169.511338710784</v>
       </c>
       <c r="S31" s="1">
-        <v>492.29154777526799</v>
+        <v>492.76816582679697</v>
       </c>
       <c r="T31" s="1">
-        <v>168.737914562225</v>
+        <v>165.40044617652799</v>
       </c>
       <c r="U31" s="1">
-        <v>128.571043014526</v>
+        <v>126.27401566505399</v>
       </c>
       <c r="V31" s="1">
-        <v>195.258399248123</v>
+        <v>195.137885093688</v>
       </c>
       <c r="W31" s="1">
-        <v>166.271042346954</v>
+        <v>211.37514328956601</v>
       </c>
       <c r="X31" s="1">
-        <v>147.921344041824</v>
+        <v>148.75400972366299</v>
       </c>
       <c r="Y31" s="1">
-        <v>3649.4108228683399</v>
+        <v>3693.5278797149599</v>
       </c>
       <c r="Z31" s="1">
-        <v>209.39236688613801</v>
+        <v>217.86630320549</v>
       </c>
       <c r="AA31" s="1">
-        <v>152.745723485946</v>
+        <v>151.84692931175201</v>
       </c>
       <c r="AB31" s="1">
-        <v>110.36078763008101</v>
+        <v>110.53480482101401</v>
       </c>
       <c r="AC31" s="1">
-        <v>167.35605764389001</v>
+        <v>169.246480703353</v>
       </c>
       <c r="AD31" s="1">
-        <v>151.526316642761</v>
+        <v>151.273432254791</v>
       </c>
       <c r="AE31" s="1">
-        <v>152.30459928512499</v>
+        <v>154.73580813407801</v>
       </c>
       <c r="AF31" s="1">
-        <v>124.27614355087201</v>
+        <v>124.57375454902601</v>
       </c>
       <c r="AG31" s="1">
-        <v>30456.017931222901</v>
+        <v>1448.51051998138</v>
       </c>
       <c r="AH31" s="1">
-        <v>1755.9469015598199</v>
+        <v>1756.5593333244301</v>
       </c>
       <c r="AI31" s="1">
-        <v>119.515671491622</v>
+        <v>120.36346554756101</v>
       </c>
       <c r="AJ31" s="1">
-        <v>59.106308221817002</v>
+        <v>59.1252856254577</v>
       </c>
       <c r="AK31" s="1">
-        <v>1675.8056304454799</v>
+        <v>1679.52250838279</v>
       </c>
       <c r="AL31" s="1">
-        <v>97.658146142959595</v>
+        <v>97.411692142486501</v>
       </c>
       <c r="AM31" s="1">
-        <v>51.894118070602403</v>
+        <v>51.909696102142298</v>
       </c>
       <c r="AN31" s="1">
-        <v>1671.71284151077</v>
+        <v>1574.4062616825099</v>
       </c>
       <c r="AO31" s="1">
-        <v>131.860214948654</v>
+        <v>125.56602859497001</v>
       </c>
       <c r="AP31" s="1">
-        <v>95.305313348770099</v>
+        <v>92.732114791870103</v>
       </c>
       <c r="AQ31" s="1">
-        <v>108.447144031524</v>
+        <v>108.91557192802399</v>
       </c>
       <c r="AR31" s="1">
-        <v>103.26345539093001</v>
+        <v>104.15179395675599</v>
       </c>
       <c r="AS31" s="1">
-        <v>100.490602254867</v>
+        <v>101.92251443862899</v>
       </c>
       <c r="AT31" s="1">
-        <v>2074.2781014442398</v>
+        <v>2069.1233792304902</v>
       </c>
       <c r="AU31" s="1">
-        <v>50.382791757583597</v>
+        <v>50.154506444931002</v>
       </c>
       <c r="AV31" s="1">
-        <v>2049.5404748916599</v>
+        <v>2053.4322702884601</v>
       </c>
       <c r="AW31" s="1">
-        <v>60.596740961074801</v>
+        <v>58.856233358383101</v>
       </c>
       <c r="AX31" s="1">
-        <v>221.992983818054</v>
+        <v>222.49288654327299</v>
       </c>
       <c r="AY31" s="1">
-        <v>1444.98658633232</v>
+        <v>1445.2244222164099</v>
       </c>
       <c r="AZ31" s="1">
-        <v>168.815933942794</v>
+        <v>169.16601252555799</v>
       </c>
       <c r="BA31" s="1">
-        <v>36.990133523940997</v>
+        <v>35.652175903320298</v>
       </c>
       <c r="BB31">
         <f>AVERAGE(D31:AZ31)</f>
-        <v>1177.2369387685023</v>
+        <v>586.87235704246712</v>
       </c>
       <c r="BC31">
-        <f t="shared" si="1"/>
-        <v>19.620615646141705</v>
+        <f t="shared" si="2"/>
+        <v>9.7812059507077844</v>
       </c>
     </row>
     <row r="32" spans="1:56" ht="15">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" s="1">
-        <v>220.95051646232599</v>
+        <v>220.47507143020599</v>
       </c>
       <c r="E32" s="1">
-        <v>436.383107900619</v>
+        <v>407.39138436317398</v>
       </c>
       <c r="F32" s="1">
-        <v>474.343545913696</v>
+        <v>474.29367375373801</v>
       </c>
       <c r="G32" s="1">
-        <v>183.02309989929199</v>
+        <v>182.24475884437501</v>
       </c>
       <c r="H32" s="1">
-        <v>608.87884092330899</v>
+        <v>610.71981310844399</v>
       </c>
       <c r="I32" s="1">
-        <v>2364.8179039955098</v>
+        <v>2364.2653758525798</v>
       </c>
       <c r="J32" s="1">
-        <v>1653.5038094520501</v>
+        <v>1733.3519804477601</v>
       </c>
       <c r="K32" s="1">
-        <v>1712.64436388015</v>
+        <v>1712.52536797523</v>
       </c>
       <c r="L32" s="1">
-        <v>242.47784900665201</v>
+        <v>241.997003793716</v>
       </c>
       <c r="M32" s="1">
-        <v>159.901930809021</v>
+        <v>159.93091034889201</v>
       </c>
       <c r="N32" s="1">
-        <v>220.152196168899</v>
+        <v>220.983724117279</v>
       </c>
       <c r="O32" s="1">
-        <v>173.81897759437501</v>
+        <v>175.18329000473</v>
       </c>
       <c r="P32" s="1">
-        <v>309.875100135803</v>
+        <v>312.37191867828301</v>
       </c>
       <c r="Q32" s="1">
-        <v>217.17947673797599</v>
+        <v>194.86415624618499</v>
       </c>
       <c r="R32" s="1">
-        <v>159.74194455146699</v>
+        <v>159.96956992149299</v>
       </c>
       <c r="S32" s="1">
-        <v>492.51854443550098</v>
+        <v>492.29154777526799</v>
       </c>
       <c r="T32" s="1">
-        <v>168.93475794792101</v>
+        <v>168.737914562225</v>
       </c>
       <c r="U32" s="1">
-        <v>125.414618968963</v>
+        <v>128.571043014526</v>
       </c>
       <c r="V32" s="1">
-        <v>196.230568170547</v>
+        <v>195.258399248123</v>
       </c>
       <c r="W32" s="1">
-        <v>169.083500623703</v>
+        <v>166.271042346954</v>
       </c>
       <c r="X32" s="1">
-        <v>148.332145690917</v>
+        <v>147.921344041824</v>
       </c>
       <c r="Y32" s="1">
-        <v>3670.4195518493598</v>
+        <v>3649.4108228683399</v>
       </c>
       <c r="Z32" s="1">
-        <v>207.64896893501199</v>
+        <v>209.39236688613801</v>
       </c>
       <c r="AA32" s="1">
-        <v>154.250782012939</v>
+        <v>152.745723485946</v>
       </c>
       <c r="AB32" s="1">
-        <v>110.071732044219</v>
+        <v>110.36078763008101</v>
       </c>
       <c r="AC32" s="1">
-        <v>167.51395893096901</v>
+        <v>167.35605764389001</v>
       </c>
       <c r="AD32" s="1">
-        <v>151.30101776123001</v>
+        <v>151.526316642761</v>
       </c>
       <c r="AE32" s="1">
-        <v>151.06258726119901</v>
+        <v>152.30459928512499</v>
       </c>
       <c r="AF32" s="1">
-        <v>124.10982131958001</v>
+        <v>124.27614355087201</v>
       </c>
       <c r="AG32" s="1">
-        <v>1590.3624141216201</v>
+        <v>30456.017931222901</v>
       </c>
       <c r="AH32" s="1">
-        <v>1748.7595191001799</v>
+        <v>1755.9469015598199</v>
       </c>
       <c r="AI32" s="1">
-        <v>119.247694969177</v>
+        <v>119.515671491622</v>
       </c>
       <c r="AJ32" s="1">
-        <v>59.038269758224402</v>
+        <v>59.106308221817002</v>
       </c>
       <c r="AK32" s="1">
-        <v>1676.1733107566799</v>
+        <v>1675.8056304454799</v>
       </c>
       <c r="AL32" s="1">
-        <v>102.351132392883</v>
+        <v>97.658146142959595</v>
       </c>
       <c r="AM32" s="1">
-        <v>51.894024610519402</v>
+        <v>51.894118070602403</v>
       </c>
       <c r="AN32" s="1">
-        <v>1674.7197773456501</v>
+        <v>1671.71284151077</v>
       </c>
       <c r="AO32" s="1">
-        <v>176.46673607826199</v>
+        <v>131.860214948654</v>
       </c>
       <c r="AP32" s="1">
-        <v>99.348181247711096</v>
+        <v>95.305313348770099</v>
       </c>
       <c r="AQ32" s="1">
-        <v>108.209105014801</v>
+        <v>108.447144031524</v>
       </c>
       <c r="AR32" s="1">
-        <v>103.60740876197799</v>
+        <v>103.26345539093001</v>
       </c>
       <c r="AS32" s="1">
-        <v>100.331343889236</v>
+        <v>100.490602254867</v>
       </c>
       <c r="AT32" s="1">
-        <v>2074.3994023799801</v>
+        <v>2074.2781014442398</v>
       </c>
       <c r="AU32" s="1">
-        <v>50.236478090286198</v>
+        <v>50.382791757583597</v>
       </c>
       <c r="AV32" s="1">
-        <v>2054.4091546535401</v>
+        <v>2049.5404748916599</v>
       </c>
       <c r="AW32" s="1">
-        <v>61.254652738571103</v>
+        <v>60.596740961074801</v>
       </c>
       <c r="AX32" s="1">
-        <v>222.01253938674901</v>
+        <v>221.992983818054</v>
       </c>
       <c r="AY32" s="1">
-        <v>1443.5646777152999</v>
+        <v>1444.98658633232</v>
       </c>
       <c r="AZ32" s="1">
-        <v>168.160786628723</v>
+        <v>168.815933942794</v>
       </c>
       <c r="BA32" s="1">
-        <v>35.948994874954202</v>
+        <v>36.990133523940997</v>
       </c>
       <c r="BB32">
         <f>AVERAGE(D32:AZ32)</f>
-        <v>588.96187406169963</v>
+        <v>1177.2369387685023</v>
       </c>
       <c r="BC32">
-        <f t="shared" si="1"/>
-        <v>9.8160312343616614</v>
+        <f t="shared" si="2"/>
+        <v>19.620615646141705</v>
       </c>
     </row>
     <row r="33" spans="1:56" ht="15">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="1">
-        <v>219.940460681915</v>
+        <v>220.95051646232599</v>
       </c>
       <c r="E33" s="1">
-        <v>630.21063089370705</v>
+        <v>436.383107900619</v>
       </c>
       <c r="F33" s="1">
-        <v>493.13215422630299</v>
+        <v>474.343545913696</v>
       </c>
       <c r="G33" s="1">
-        <v>182.866118431091</v>
+        <v>183.02309989929199</v>
       </c>
       <c r="H33" s="1">
-        <v>634.36877512931801</v>
+        <v>608.87884092330899</v>
       </c>
       <c r="I33" s="1">
-        <v>2368.95276737213</v>
+        <v>2364.8179039955098</v>
       </c>
       <c r="J33" s="1">
-        <v>1654.0059554576801</v>
+        <v>1653.5038094520501</v>
       </c>
       <c r="K33" s="1">
-        <v>1713.8172242641399</v>
+        <v>1712.64436388015</v>
       </c>
       <c r="L33" s="1">
-        <v>242.32750916481001</v>
+        <v>242.47784900665201</v>
       </c>
       <c r="M33" s="1">
-        <v>159.92693591117799</v>
+        <v>159.901930809021</v>
       </c>
       <c r="N33" s="1">
-        <v>218.787601947784</v>
+        <v>220.152196168899</v>
       </c>
       <c r="O33" s="1">
-        <v>173.29149627685501</v>
+        <v>173.81897759437501</v>
       </c>
       <c r="P33" s="1">
-        <v>311.33152484893799</v>
+        <v>309.875100135803</v>
       </c>
       <c r="Q33" s="1">
-        <v>217.48954486846901</v>
+        <v>217.17947673797599</v>
       </c>
       <c r="R33" s="1">
-        <v>168.84606552124001</v>
+        <v>159.74194455146699</v>
       </c>
       <c r="S33" s="1">
-        <v>492.29320049285798</v>
+        <v>492.51854443550098</v>
       </c>
       <c r="T33" s="1">
-        <v>168.08125138282699</v>
+        <v>168.93475794792101</v>
       </c>
       <c r="U33" s="1">
-        <v>123.53945159912099</v>
+        <v>125.414618968963</v>
       </c>
       <c r="V33" s="1">
-        <v>196.28912329673699</v>
+        <v>196.230568170547</v>
       </c>
       <c r="W33" s="1">
-        <v>166.37488603591899</v>
+        <v>169.083500623703</v>
       </c>
       <c r="X33" s="1">
-        <v>148.12891006469701</v>
+        <v>148.332145690917</v>
       </c>
       <c r="Y33" s="1">
-        <v>3652.6038968562998</v>
+        <v>3670.4195518493598</v>
       </c>
       <c r="Z33" s="1">
-        <v>209.639841079711</v>
+        <v>207.64896893501199</v>
       </c>
       <c r="AA33" s="1">
-        <v>159.84337782859799</v>
+        <v>154.250782012939</v>
       </c>
       <c r="AB33" s="1">
-        <v>109.978685855865</v>
+        <v>110.071732044219</v>
       </c>
       <c r="AC33" s="1">
-        <v>167.26201367378201</v>
+        <v>167.51395893096901</v>
       </c>
       <c r="AD33" s="1">
-        <v>151.942656040191</v>
+        <v>151.30101776123001</v>
       </c>
       <c r="AE33" s="1">
-        <v>151.690975666046</v>
+        <v>151.06258726119901</v>
       </c>
       <c r="AF33" s="1">
-        <v>124.597767591476</v>
+        <v>124.10982131958001</v>
       </c>
       <c r="AG33" s="1">
-        <v>1606.2676141262</v>
+        <v>1590.3624141216201</v>
       </c>
       <c r="AH33" s="1">
-        <v>1761.9053819179501</v>
+        <v>1748.7595191001799</v>
       </c>
       <c r="AI33" s="1">
-        <v>119.192507505416</v>
+        <v>119.247694969177</v>
       </c>
       <c r="AJ33" s="1">
-        <v>58.8691980838775</v>
+        <v>59.038269758224402</v>
       </c>
       <c r="AK33" s="1">
-        <v>1677.3899705409999</v>
+        <v>1676.1733107566799</v>
       </c>
       <c r="AL33" s="1">
-        <v>112.047119140625</v>
+        <v>102.351132392883</v>
       </c>
       <c r="AM33" s="1">
-        <v>51.894075393676701</v>
+        <v>51.894024610519402</v>
       </c>
       <c r="AN33" s="1">
-        <v>1670.50035190582</v>
+        <v>1674.7197773456501</v>
       </c>
       <c r="AO33" s="1">
-        <v>158.296700954437</v>
+        <v>176.46673607826199</v>
       </c>
       <c r="AP33" s="1">
-        <v>92.677629709243703</v>
+        <v>99.348181247711096</v>
       </c>
       <c r="AQ33" s="1">
-        <v>107.450033903121</v>
+        <v>108.209105014801</v>
       </c>
       <c r="AR33" s="1">
-        <v>102.601269960403</v>
+        <v>103.60740876197799</v>
       </c>
       <c r="AS33" s="1">
-        <v>100.41890835762</v>
+        <v>100.331343889236</v>
       </c>
       <c r="AT33" s="1">
-        <v>2074.6350467205002</v>
+        <v>2074.3994023799801</v>
       </c>
       <c r="AU33" s="1">
-        <v>50.404160737991297</v>
+        <v>50.236478090286198</v>
       </c>
       <c r="AV33" s="1">
-        <v>2050.1772775650002</v>
+        <v>2054.4091546535401</v>
       </c>
       <c r="AW33" s="1">
-        <v>60.798936128616297</v>
+        <v>61.254652738571103</v>
       </c>
       <c r="AX33" s="1">
-        <v>221.92559075355501</v>
+        <v>222.01253938674901</v>
       </c>
       <c r="AY33" s="1">
-        <v>1436.7361631393401</v>
+        <v>1443.5646777152999</v>
       </c>
       <c r="AZ33" s="1">
-        <v>168.36783337592999</v>
+        <v>168.160786628723</v>
       </c>
       <c r="BA33" s="1">
-        <v>35.298149347305298</v>
+        <v>35.948994874954202</v>
       </c>
       <c r="BB33">
         <f>AVERAGE(D33:AZ33)</f>
-        <v>593.75748106897993</v>
+        <v>588.96187406169963</v>
       </c>
       <c r="BC33">
-        <f t="shared" si="1"/>
-        <v>9.8959580178163318</v>
+        <f t="shared" si="2"/>
+        <v>9.8160312343616614</v>
       </c>
     </row>
     <row r="34" spans="1:56" ht="15">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" s="1">
-        <v>219.26677560806201</v>
+        <v>219.940460681915</v>
       </c>
       <c r="E34" s="1">
-        <v>475.48758649825999</v>
+        <v>630.21063089370705</v>
       </c>
       <c r="F34" s="1">
-        <v>558.89427924156098</v>
+        <v>493.13215422630299</v>
       </c>
       <c r="G34" s="1">
-        <v>182.719030380249</v>
+        <v>182.866118431091</v>
       </c>
       <c r="H34" s="1">
-        <v>635.45512151718106</v>
+        <v>634.36877512931801</v>
       </c>
       <c r="I34" s="1">
-        <v>2375.7911381721401</v>
+        <v>2368.95276737213</v>
       </c>
       <c r="J34" s="1">
-        <v>1655.7507915496799</v>
+        <v>1654.0059554576801</v>
       </c>
       <c r="K34" s="1">
-        <v>1708.8592903614001</v>
+        <v>1713.8172242641399</v>
       </c>
       <c r="L34" s="1">
-        <v>242.23659062385499</v>
+        <v>242.32750916481001</v>
       </c>
       <c r="M34" s="1">
-        <v>159.86392259597699</v>
+        <v>159.92693591117799</v>
       </c>
       <c r="N34" s="1">
-        <v>219.98294162750199</v>
+        <v>218.787601947784</v>
       </c>
       <c r="O34" s="1">
-        <v>173.37380266189501</v>
+        <v>173.29149627685501</v>
       </c>
       <c r="P34" s="1">
-        <v>330.09119510650601</v>
+        <v>311.33152484893799</v>
       </c>
       <c r="Q34" s="1">
-        <v>215.90793275833099</v>
+        <v>217.48954486846901</v>
       </c>
       <c r="R34" s="1">
-        <v>160.38572859764099</v>
+        <v>168.84606552124001</v>
       </c>
       <c r="S34" s="1">
-        <v>492.67422628402699</v>
+        <v>492.29320049285798</v>
       </c>
       <c r="T34" s="1">
-        <v>168.17598485946601</v>
+        <v>168.08125138282699</v>
       </c>
       <c r="U34" s="1">
-        <v>122.91442441940301</v>
+        <v>123.53945159912099</v>
       </c>
       <c r="V34" s="1">
-        <v>194.31913471221901</v>
+        <v>196.28912329673699</v>
       </c>
       <c r="W34" s="1">
-        <v>171.76080751418999</v>
+        <v>166.37488603591899</v>
       </c>
       <c r="X34" s="1">
-        <v>148.012032985687</v>
+        <v>148.12891006469701</v>
       </c>
       <c r="Y34" s="1">
-        <v>3736.8919091224602</v>
+        <v>3652.6038968562998</v>
       </c>
       <c r="Z34" s="1">
-        <v>208.43449234962401</v>
+        <v>209.639841079711</v>
       </c>
       <c r="AA34" s="1">
-        <v>157.99342036247199</v>
+        <v>159.84337782859799</v>
       </c>
       <c r="AB34" s="1">
-        <v>110.15577960014301</v>
+        <v>109.978685855865</v>
       </c>
       <c r="AC34" s="1">
-        <v>168.16404867172201</v>
+        <v>167.26201367378201</v>
       </c>
       <c r="AD34" s="1">
-        <v>150.48848414420999</v>
+        <v>151.942656040191</v>
       </c>
       <c r="AE34" s="1">
-        <v>151.03240036964399</v>
+        <v>151.690975666046</v>
       </c>
       <c r="AF34" s="1">
-        <v>124.24438357353201</v>
+        <v>124.597767591476</v>
       </c>
       <c r="AG34" s="1">
-        <v>1598.4244644641799</v>
+        <v>1606.2676141262</v>
       </c>
       <c r="AH34" s="1">
-        <v>1814.2937052249899</v>
+        <v>1761.9053819179501</v>
       </c>
       <c r="AI34" s="1">
-        <v>119.885918855667</v>
+        <v>119.192507505416</v>
       </c>
       <c r="AJ34" s="1">
-        <v>59.010285377502399</v>
+        <v>58.8691980838775</v>
       </c>
       <c r="AK34" s="1">
-        <v>1676.1287043094601</v>
+        <v>1677.3899705409999</v>
       </c>
       <c r="AL34" s="1">
-        <v>95.330239295959402</v>
+        <v>112.047119140625</v>
       </c>
       <c r="AM34" s="1">
-        <v>51.862824201583798</v>
+        <v>51.894075393676701</v>
       </c>
       <c r="AN34" s="1">
-        <v>1651.77516341209</v>
+        <v>1670.50035190582</v>
       </c>
       <c r="AO34" s="1">
-        <v>123.723366260528</v>
+        <v>158.296700954437</v>
       </c>
       <c r="AP34" s="1">
-        <v>92.896585226058903</v>
+        <v>92.677629709243703</v>
       </c>
       <c r="AQ34" s="1">
-        <v>107.955086946487</v>
+        <v>107.450033903121</v>
       </c>
       <c r="AR34" s="1">
-        <v>102.856119871139</v>
+        <v>102.601269960403</v>
       </c>
       <c r="AS34" s="1">
-        <v>100.895277738571</v>
+        <v>100.41890835762</v>
       </c>
       <c r="AT34" s="1">
-        <v>2086.5011548995899</v>
+        <v>2074.6350467205002</v>
       </c>
       <c r="AU34" s="1">
-        <v>50.609065055847097</v>
+        <v>50.404160737991297</v>
       </c>
       <c r="AV34" s="1">
-        <v>2054.4197280406902</v>
+        <v>2050.1772775650002</v>
       </c>
       <c r="AW34" s="1">
-        <v>61.062492132186797</v>
+        <v>60.798936128616297</v>
       </c>
       <c r="AX34" s="1">
-        <v>221.979429006576</v>
+        <v>221.92559075355501</v>
       </c>
       <c r="AY34" s="1">
-        <v>1437.1737196445399</v>
+        <v>1436.7361631393401</v>
       </c>
       <c r="AZ34" s="1">
-        <v>168.543872356414</v>
+        <v>168.36783337592999</v>
       </c>
       <c r="BA34" s="1">
-        <v>35.940514326095503</v>
+        <v>35.298149347305298</v>
       </c>
       <c r="BB34">
         <f>AVERAGE(D34:AZ34)</f>
-        <v>593.76846650181858</v>
+        <v>593.75748106897993</v>
       </c>
       <c r="BC34">
-        <f t="shared" si="1"/>
-        <v>9.8961411083636435</v>
+        <f t="shared" si="2"/>
+        <v>9.8959580178163318</v>
       </c>
     </row>
     <row r="35" spans="1:56" ht="15">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="1">
-        <v>220.77749395370401</v>
+        <v>219.26677560806201</v>
       </c>
       <c r="E35" s="1">
-        <v>418.72619557380602</v>
+        <v>475.48758649825999</v>
       </c>
       <c r="F35" s="1">
-        <v>570.84594845771699</v>
+        <v>558.89427924156098</v>
       </c>
       <c r="G35" s="1">
-        <v>183.17318749427699</v>
+        <v>182.719030380249</v>
       </c>
       <c r="H35" s="1">
-        <v>643.18438601493801</v>
+        <v>635.45512151718106</v>
       </c>
       <c r="I35" s="1">
-        <v>2364.1945304870601</v>
+        <v>2375.7911381721401</v>
       </c>
       <c r="J35" s="1">
-        <v>1654.3317053318001</v>
+        <v>1655.7507915496799</v>
       </c>
       <c r="K35" s="1">
-        <v>1713.18816423416</v>
+        <v>1708.8592903614001</v>
       </c>
       <c r="L35" s="1">
-        <v>241.81046271324101</v>
+        <v>242.23659062385499</v>
       </c>
       <c r="M35" s="1">
-        <v>159.947941303253</v>
+        <v>159.86392259597699</v>
       </c>
       <c r="N35" s="1">
-        <v>220.80210781097401</v>
+        <v>219.98294162750199</v>
       </c>
       <c r="O35" s="1">
-        <v>173.59671545028601</v>
+        <v>173.37380266189501</v>
       </c>
       <c r="P35" s="1">
-        <v>313.08948612213101</v>
+        <v>330.09119510650601</v>
       </c>
       <c r="Q35" s="1">
-        <v>215.22149443626401</v>
+        <v>215.90793275833099</v>
       </c>
       <c r="R35" s="1">
-        <v>164.53130626678399</v>
+        <v>160.38572859764099</v>
       </c>
       <c r="S35" s="1">
-        <v>492.49118494987403</v>
+        <v>492.67422628402699</v>
       </c>
       <c r="T35" s="1">
-        <v>164.91666960716199</v>
+        <v>168.17598485946601</v>
       </c>
       <c r="U35" s="1">
-        <v>122.914422988891</v>
+        <v>122.91442441940301</v>
       </c>
       <c r="V35" s="1">
-        <v>194.48388981819099</v>
+        <v>194.31913471221901</v>
       </c>
       <c r="W35" s="1">
-        <v>166.84890198707501</v>
+        <v>171.76080751418999</v>
       </c>
       <c r="X35" s="1">
-        <v>148.34834384918199</v>
+        <v>148.012032985687</v>
       </c>
       <c r="Y35" s="1">
-        <v>3690.0415601730301</v>
+        <v>3736.8919091224602</v>
       </c>
       <c r="Z35" s="1">
-        <v>207.464879989624</v>
+        <v>208.43449234962401</v>
       </c>
       <c r="AA35" s="1">
-        <v>155.52919220924301</v>
+        <v>157.99342036247199</v>
       </c>
       <c r="AB35" s="1">
-        <v>109.915756225585</v>
+        <v>110.15577960014301</v>
       </c>
       <c r="AC35" s="1">
-        <v>167.38801646232599</v>
+        <v>168.16404867172201</v>
       </c>
       <c r="AD35" s="1">
-        <v>152.87206721305799</v>
+        <v>150.48848414420999</v>
       </c>
       <c r="AE35" s="1">
-        <v>150.320741176605</v>
+        <v>151.03240036964399</v>
       </c>
       <c r="AF35" s="1">
-        <v>124.230722665786</v>
+        <v>124.24438357353201</v>
       </c>
       <c r="AG35" s="1">
-        <v>1600.48915767669</v>
+        <v>1598.4244644641799</v>
       </c>
       <c r="AH35" s="1">
-        <v>1782.57992386817</v>
+        <v>1814.2937052249899</v>
       </c>
       <c r="AI35" s="1">
-        <v>120.046689271926</v>
+        <v>119.885918855667</v>
       </c>
       <c r="AJ35" s="1">
-        <v>58.9822545051574</v>
+        <v>59.010285377502399</v>
       </c>
       <c r="AK35" s="1">
-        <v>1676.4499535560601</v>
+        <v>1676.1287043094601</v>
       </c>
       <c r="AL35" s="1">
-        <v>95.068613052368093</v>
+        <v>95.330239295959402</v>
       </c>
       <c r="AM35" s="1">
-        <v>51.909702062606797</v>
+        <v>51.862824201583798</v>
       </c>
       <c r="AN35" s="1">
-        <v>1632.65282535552</v>
+        <v>1651.77516341209</v>
       </c>
       <c r="AO35" s="1">
-        <v>122.91993713378901</v>
+        <v>123.723366260528</v>
       </c>
       <c r="AP35" s="1">
-        <v>92.641134023666297</v>
+        <v>92.896585226058903</v>
       </c>
       <c r="AQ35" s="1">
-        <v>108.153735160827</v>
+        <v>107.955086946487</v>
       </c>
       <c r="AR35" s="1">
-        <v>103.025400400161</v>
+        <v>102.856119871139</v>
       </c>
       <c r="AS35" s="1">
-        <v>100.517026901245</v>
+        <v>100.895277738571</v>
       </c>
       <c r="AT35" s="1">
-        <v>2069.8929278850501</v>
+        <v>2086.5011548995899</v>
       </c>
       <c r="AU35" s="1">
-        <v>50.270243406295698</v>
+        <v>50.609065055847097</v>
       </c>
       <c r="AV35" s="1">
-        <v>2052.36974430084</v>
+        <v>2054.4197280406902</v>
       </c>
       <c r="AW35" s="1">
-        <v>61.114426851272498</v>
+        <v>61.062492132186797</v>
       </c>
       <c r="AX35" s="1">
-        <v>221.881048440933</v>
+        <v>221.979429006576</v>
       </c>
       <c r="AY35" s="1">
-        <v>1436.4863615035999</v>
+        <v>1437.1737196445399</v>
       </c>
       <c r="AZ35" s="1">
-        <v>168.22760772705001</v>
+        <v>168.543872356414</v>
       </c>
       <c r="BA35" s="1">
-        <v>36.131186723709099</v>
+        <v>35.940514326095503</v>
       </c>
       <c r="BB35">
         <f>AVERAGE(D35:AZ35)</f>
-        <v>590.01767730712777</v>
+        <v>593.76846650181858</v>
       </c>
       <c r="BC35">
-        <f t="shared" si="1"/>
-        <v>9.8336279551187964</v>
+        <f t="shared" si="2"/>
+        <v>9.8961411083636435</v>
       </c>
     </row>
     <row r="36" spans="1:56" ht="15">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="1">
-        <v>220.38309574127101</v>
+        <v>220.77749395370401</v>
       </c>
       <c r="E36" s="1">
-        <v>402.60153818130402</v>
+        <v>418.72619557380602</v>
       </c>
       <c r="F36" s="1">
-        <v>556.10951375961304</v>
+        <v>570.84594845771699</v>
       </c>
       <c r="G36" s="1">
-        <v>186.380854129791</v>
+        <v>183.17318749427699</v>
       </c>
       <c r="H36" s="1">
-        <v>647.61683249473504</v>
+        <v>643.18438601493801</v>
       </c>
       <c r="I36" s="1">
-        <v>2365.8747448921199</v>
+        <v>2364.1945304870601</v>
       </c>
       <c r="J36" s="1">
-        <v>1654.6413450241</v>
+        <v>1654.3317053318001</v>
       </c>
       <c r="K36" s="1">
-        <v>1711.0064020156799</v>
+        <v>1713.18816423416</v>
       </c>
       <c r="L36" s="1">
-        <v>241.73729896545399</v>
+        <v>241.81046271324101</v>
       </c>
       <c r="M36" s="1">
-        <v>159.62189650535501</v>
+        <v>159.947941303253</v>
       </c>
       <c r="N36" s="1">
-        <v>220.35806512832599</v>
+        <v>220.80210781097401</v>
       </c>
       <c r="O36" s="1">
-        <v>175.005455255508</v>
+        <v>173.59671545028601</v>
       </c>
       <c r="P36" s="1">
-        <v>315.81345605850203</v>
+        <v>313.08948612213101</v>
       </c>
       <c r="Q36" s="1">
-        <v>229.781109571456</v>
+        <v>215.22149443626401</v>
       </c>
       <c r="R36" s="1">
-        <v>164.64398193359301</v>
+        <v>164.53130626678399</v>
       </c>
       <c r="S36" s="1">
-        <v>492.79615879058798</v>
+        <v>492.49118494987403</v>
       </c>
       <c r="T36" s="1">
-        <v>164.93974399566599</v>
+        <v>164.91666960716199</v>
       </c>
       <c r="U36" s="1">
-        <v>122.836302995681</v>
+        <v>122.914422988891</v>
       </c>
       <c r="V36" s="1">
-        <v>194.578221559524</v>
+        <v>194.48388981819099</v>
       </c>
       <c r="W36" s="1">
-        <v>167.233682394027</v>
+        <v>166.84890198707501</v>
       </c>
       <c r="X36" s="1">
-        <v>147.77281904220499</v>
+        <v>148.34834384918199</v>
       </c>
       <c r="Y36" s="1">
-        <v>3657.9564788341499</v>
+        <v>3690.0415601730301</v>
       </c>
       <c r="Z36" s="1">
-        <v>204.38921356201101</v>
+        <v>207.464879989624</v>
       </c>
       <c r="AA36" s="1">
-        <v>152.55965352058399</v>
+        <v>155.52919220924301</v>
       </c>
       <c r="AB36" s="1">
-        <v>109.734601259231</v>
+        <v>109.915756225585</v>
       </c>
       <c r="AC36" s="1">
-        <v>167.01515293121301</v>
+        <v>167.38801646232599</v>
       </c>
       <c r="AD36" s="1">
-        <v>152.451747179031</v>
+        <v>152.87206721305799</v>
       </c>
       <c r="AE36" s="1">
-        <v>149.99833369255001</v>
+        <v>150.320741176605</v>
       </c>
       <c r="AF36" s="1">
-        <v>124.10680842399501</v>
+        <v>124.230722665786</v>
       </c>
       <c r="AG36" s="1">
-        <v>1610.4269778728401</v>
+        <v>1600.48915767669</v>
       </c>
       <c r="AH36" s="1">
-        <v>1783.1934089660599</v>
+        <v>1782.57992386817</v>
       </c>
       <c r="AI36" s="1">
-        <v>119.00621461868199</v>
+        <v>120.046689271926</v>
       </c>
       <c r="AJ36" s="1">
-        <v>59.061281681060699</v>
+        <v>58.9822545051574</v>
       </c>
       <c r="AK36" s="1">
-        <v>1677.3621678352299</v>
+        <v>1676.4499535560601</v>
       </c>
       <c r="AL36" s="1">
-        <v>95.160164833068805</v>
+        <v>95.068613052368093</v>
       </c>
       <c r="AM36" s="1">
-        <v>51.862833976745598</v>
+        <v>51.909702062606797</v>
       </c>
       <c r="AN36" s="1">
-        <v>1615.7600908279401</v>
+        <v>1632.65282535552</v>
       </c>
       <c r="AO36" s="1">
-        <v>122.537598848342</v>
+        <v>122.91993713378901</v>
       </c>
       <c r="AP36" s="1">
-        <v>92.564419984817505</v>
+        <v>92.641134023666297</v>
       </c>
       <c r="AQ36" s="1">
-        <v>107.30735206604</v>
+        <v>108.153735160827</v>
       </c>
       <c r="AR36" s="1">
-        <v>103.353288888931</v>
+        <v>103.025400400161</v>
       </c>
       <c r="AS36" s="1">
-        <v>99.731331110000596</v>
+        <v>100.517026901245</v>
       </c>
       <c r="AT36" s="1">
-        <v>2061.9091143607998</v>
+        <v>2069.8929278850501</v>
       </c>
       <c r="AU36" s="1">
-        <v>50.311744213104198</v>
+        <v>50.270243406295698</v>
       </c>
       <c r="AV36" s="1">
-        <v>2055.0609343051901</v>
+        <v>2052.36974430084</v>
       </c>
       <c r="AW36" s="1">
-        <v>61.385624170303302</v>
+        <v>61.114426851272498</v>
       </c>
       <c r="AX36" s="1">
-        <v>221.979452133178</v>
+        <v>221.881048440933</v>
       </c>
       <c r="AY36" s="1">
-        <v>1438.4080634117099</v>
+        <v>1436.4863615035999</v>
       </c>
       <c r="AZ36" s="1">
-        <v>168.18082427978501</v>
+        <v>168.22760772705001</v>
       </c>
       <c r="BA36" s="1">
-        <v>36.106121540069502</v>
+        <v>36.131186723709099</v>
       </c>
       <c r="BB36">
         <f>AVERAGE(D36:AZ36)</f>
-        <v>588.86749788206328</v>
+        <v>590.01767730712777</v>
       </c>
       <c r="BC36">
-        <f t="shared" si="1"/>
-        <v>9.8144582980343884</v>
+        <f t="shared" si="2"/>
+        <v>9.8336279551187964</v>
       </c>
     </row>
     <row r="37" spans="1:56" ht="15">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="1">
-        <v>219.67748951911901</v>
+        <v>220.38309574127101</v>
       </c>
       <c r="E37" s="1">
-        <v>403.51137828826899</v>
+        <v>402.60153818130402</v>
       </c>
       <c r="F37" s="1">
-        <v>542.50733256340004</v>
+        <v>556.10951375961304</v>
       </c>
       <c r="G37" s="1">
-        <v>189.07648682594299</v>
+        <v>186.380854129791</v>
       </c>
       <c r="H37" s="1">
-        <v>649.72807860374405</v>
+        <v>647.61683249473504</v>
       </c>
       <c r="I37" s="1">
-        <v>2368.1284308433501</v>
+        <v>2365.8747448921199</v>
       </c>
       <c r="J37" s="1">
-        <v>1654.95617032051</v>
+        <v>1654.6413450241</v>
       </c>
       <c r="K37" s="1">
-        <v>1712.1378953456799</v>
+        <v>1711.0064020156799</v>
       </c>
       <c r="L37" s="1">
-        <v>241.468354701995</v>
+        <v>241.73729896545399</v>
       </c>
       <c r="M37" s="1">
-        <v>159.96891736984199</v>
+        <v>159.62189650535501</v>
       </c>
       <c r="N37" s="1">
-        <v>222.72138786315901</v>
+        <v>220.35806512832599</v>
       </c>
       <c r="O37" s="1">
-        <v>173.98914694786001</v>
+        <v>175.005455255508</v>
       </c>
       <c r="P37" s="1">
-        <v>310.87895441055298</v>
+        <v>315.81345605850203</v>
       </c>
       <c r="Q37" s="1">
-        <v>215.779406070709</v>
+        <v>229.781109571456</v>
       </c>
       <c r="R37" s="1">
-        <v>159.92989993095301</v>
+        <v>164.64398193359301</v>
       </c>
       <c r="S37" s="1">
-        <v>492.642279624938</v>
+        <v>492.79615879058798</v>
       </c>
       <c r="T37" s="1">
-        <v>164.731297731399</v>
+        <v>164.93974399566599</v>
       </c>
       <c r="U37" s="1">
-        <v>122.742530822753</v>
+        <v>122.836302995681</v>
       </c>
       <c r="V37" s="1">
-        <v>194.788695812225</v>
+        <v>194.578221559524</v>
       </c>
       <c r="W37" s="1">
-        <v>168.712557554245</v>
+        <v>167.233682394027</v>
       </c>
       <c r="X37" s="1">
-        <v>148.157323360443</v>
+        <v>147.77281904220499</v>
       </c>
       <c r="Y37" s="1">
-        <v>3744.43830609321</v>
+        <v>3657.9564788341499</v>
       </c>
       <c r="Z37" s="1">
-        <v>209.18232965469301</v>
+        <v>204.38921356201101</v>
       </c>
       <c r="AA37" s="1">
-        <v>154.940752744674</v>
+        <v>152.55965352058399</v>
       </c>
       <c r="AB37" s="1">
-        <v>109.97377705574</v>
+        <v>109.734601259231</v>
       </c>
       <c r="AC37" s="1">
-        <v>166.468596458435</v>
+        <v>167.01515293121301</v>
       </c>
       <c r="AD37" s="1">
-        <v>152.43030762672399</v>
+        <v>152.451747179031</v>
       </c>
       <c r="AE37" s="1">
-        <v>150.45815372467001</v>
+        <v>149.99833369255001</v>
       </c>
       <c r="AF37" s="1">
-        <v>124.317340612411</v>
+        <v>124.10680842399501</v>
       </c>
       <c r="AG37" s="1">
-        <v>1605.2111232280699</v>
+        <v>1610.4269778728401</v>
       </c>
       <c r="AH37" s="1">
-        <v>1760.8678965568499</v>
+        <v>1783.1934089660599</v>
       </c>
       <c r="AI37" s="1">
-        <v>118.78508663177401</v>
+        <v>119.00621461868199</v>
       </c>
       <c r="AJ37" s="1">
-        <v>59.066262483596802</v>
+        <v>59.061281681060699</v>
       </c>
       <c r="AK37" s="1">
-        <v>1676.5269629955201</v>
+        <v>1677.3621678352299</v>
       </c>
       <c r="AL37" s="1">
-        <v>95.208458423614502</v>
+        <v>95.160164833068805</v>
       </c>
       <c r="AM37" s="1">
-        <v>51.894086360931396</v>
+        <v>51.862833976745598</v>
       </c>
       <c r="AN37" s="1">
-        <v>1600.2233116626701</v>
+        <v>1615.7600908279401</v>
       </c>
       <c r="AO37" s="1">
-        <v>121.82254076004</v>
+        <v>122.537598848342</v>
       </c>
       <c r="AP37" s="1">
-        <v>92.899418354034395</v>
+        <v>92.564419984817505</v>
       </c>
       <c r="AQ37" s="1">
-        <v>106.971457719802</v>
+        <v>107.30735206604</v>
       </c>
       <c r="AR37" s="1">
-        <v>103.546960592269</v>
+        <v>103.353288888931</v>
       </c>
       <c r="AS37" s="1">
-        <v>99.275678634643498</v>
+        <v>99.731331110000596</v>
       </c>
       <c r="AT37" s="1">
-        <v>2066.2412855625098</v>
+        <v>2061.9091143607998</v>
       </c>
       <c r="AU37" s="1">
-        <v>50.047596931457498</v>
+        <v>50.311744213104198</v>
       </c>
       <c r="AV37" s="1">
-        <v>2059.1331055164301</v>
+        <v>2055.0609343051901</v>
       </c>
       <c r="AW37" s="1">
-        <v>61.210762500762897</v>
+        <v>61.385624170303302</v>
       </c>
       <c r="AX37" s="1">
-        <v>222.163520812988</v>
+        <v>221.979452133178</v>
       </c>
       <c r="AY37" s="1">
-        <v>1440.89265465736</v>
+        <v>1438.4080634117099</v>
       </c>
       <c r="AZ37" s="1">
-        <v>168.38231325149499</v>
+        <v>168.18082427978501</v>
       </c>
       <c r="BA37" s="1">
-        <v>36.561249256133998</v>
+        <v>36.106121540069502</v>
       </c>
       <c r="BB37">
         <f>AVERAGE(D37:AZ37)</f>
-        <v>589.56763392078528</v>
+        <v>588.86749788206328</v>
       </c>
       <c r="BC37">
-        <f t="shared" si="1"/>
-        <v>9.8261272320130875</v>
+        <f t="shared" si="2"/>
+        <v>9.8144582980343884</v>
       </c>
     </row>
     <row r="38" spans="1:56" ht="15">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1">
-        <v>220.00606584548899</v>
+        <v>219.67748951911901</v>
       </c>
       <c r="E38" s="1">
-        <v>403.41371941566399</v>
+        <v>403.51137828826899</v>
       </c>
       <c r="F38" s="1">
-        <v>527.81753706932</v>
+        <v>542.50733256340004</v>
       </c>
       <c r="G38" s="1">
-        <v>188.75241327285701</v>
+        <v>189.07648682594299</v>
       </c>
       <c r="H38" s="1">
-        <v>655.11269450187604</v>
+        <v>649.72807860374405</v>
       </c>
       <c r="I38" s="1">
-        <v>2366.8972308635698</v>
+        <v>2368.1284308433501</v>
       </c>
       <c r="J38" s="1">
-        <v>1654.0227274894701</v>
+        <v>1654.95617032051</v>
       </c>
       <c r="K38" s="1">
-        <v>1710.74059009552</v>
+        <v>1712.1378953456799</v>
       </c>
       <c r="L38" s="1">
-        <v>240.706849098205</v>
+        <v>241.468354701995</v>
       </c>
       <c r="M38" s="1">
-        <v>159.69309329986501</v>
+        <v>159.96891736984199</v>
       </c>
       <c r="N38" s="1">
-        <v>216.62614130973799</v>
+        <v>222.72138786315901</v>
       </c>
       <c r="O38" s="1">
-        <v>173.761008501052</v>
+        <v>173.98914694786001</v>
       </c>
       <c r="P38" s="1">
-        <v>312.50671315193102</v>
+        <v>310.87895441055298</v>
       </c>
       <c r="Q38" s="1">
-        <v>215.69824266433699</v>
+        <v>215.779406070709</v>
       </c>
       <c r="R38" s="1">
-        <v>161.974010944366</v>
+        <v>159.92989993095301</v>
       </c>
       <c r="S38" s="1">
-        <v>492.61672210693303</v>
+        <v>492.642279624938</v>
       </c>
       <c r="T38" s="1">
-        <v>164.99923610687199</v>
+        <v>164.731297731399</v>
       </c>
       <c r="U38" s="1">
-        <v>122.72689461708001</v>
+        <v>122.742530822753</v>
       </c>
       <c r="V38" s="1">
-        <v>194.79113841056801</v>
+        <v>194.788695812225</v>
       </c>
       <c r="W38" s="1">
-        <v>164.874107599258</v>
+        <v>168.712557554245</v>
       </c>
       <c r="X38" s="1">
-        <v>148.173868894577</v>
+        <v>148.157323360443</v>
       </c>
       <c r="Y38" s="1">
-        <v>3673.3270280361098</v>
+        <v>3744.43830609321</v>
       </c>
       <c r="Z38" s="1">
-        <v>207.80906176567001</v>
+        <v>209.18232965469301</v>
       </c>
       <c r="AA38" s="1">
-        <v>165.38675212860099</v>
+        <v>154.940752744674</v>
       </c>
       <c r="AB38" s="1">
-        <v>109.75160074234</v>
+        <v>109.97377705574</v>
       </c>
       <c r="AC38" s="1">
-        <v>165.457649946212</v>
+        <v>166.468596458435</v>
       </c>
       <c r="AD38" s="1">
-        <v>151.62746906280501</v>
+        <v>152.43030762672399</v>
       </c>
       <c r="AE38" s="1">
-        <v>149.06815719604401</v>
+        <v>150.45815372467001</v>
       </c>
       <c r="AF38" s="1">
-        <v>123.716135025024</v>
+        <v>124.317340612411</v>
       </c>
       <c r="AG38" s="1">
-        <v>1593.6579282283701</v>
+        <v>1605.2111232280699</v>
       </c>
       <c r="AH38" s="1">
-        <v>1763.0939016342099</v>
+        <v>1760.8678965568499</v>
       </c>
       <c r="AI38" s="1">
-        <v>118.471574068069</v>
+        <v>118.78508663177401</v>
       </c>
       <c r="AJ38" s="1">
-        <v>59.004231691360403</v>
+        <v>59.066262483596802</v>
       </c>
       <c r="AK38" s="1">
-        <v>1678.29423594474</v>
+        <v>1676.5269629955201</v>
       </c>
       <c r="AL38" s="1">
-        <v>95.1342804431915</v>
+        <v>95.208458423614502</v>
       </c>
       <c r="AM38" s="1">
-        <v>51.940921545028601</v>
+        <v>51.894086360931396</v>
       </c>
       <c r="AN38" s="1">
-        <v>1619.5350325107499</v>
+        <v>1600.2233116626701</v>
       </c>
       <c r="AO38" s="1">
-        <v>121.207761764526</v>
+        <v>121.82254076004</v>
       </c>
       <c r="AP38" s="1">
-        <v>92.401749849319401</v>
+        <v>92.899418354034395</v>
       </c>
       <c r="AQ38" s="1">
-        <v>105.902109384536</v>
+        <v>106.971457719802</v>
       </c>
       <c r="AR38" s="1">
-        <v>103.910719633102</v>
+        <v>103.546960592269</v>
       </c>
       <c r="AS38" s="1">
-        <v>99.159111261367798</v>
+        <v>99.275678634643498</v>
       </c>
       <c r="AT38" s="1">
-        <v>2057.69559645652</v>
+        <v>2066.2412855625098</v>
       </c>
       <c r="AU38" s="1">
-        <v>50.3562459945678</v>
+        <v>50.047596931457498</v>
       </c>
       <c r="AV38" s="1">
-        <v>2055.7062509059901</v>
+        <v>2059.1331055164301</v>
       </c>
       <c r="AW38" s="1">
-        <v>64.142853736877399</v>
+        <v>61.210762500762897</v>
       </c>
       <c r="AX38" s="1">
-        <v>222.12779426574701</v>
+        <v>222.163520812988</v>
       </c>
       <c r="AY38" s="1">
-        <v>1439.72086381912</v>
+        <v>1440.89265465736</v>
       </c>
       <c r="AZ38" s="1">
-        <v>168.31382131576501</v>
+        <v>168.38231325149499</v>
       </c>
       <c r="BA38" s="1">
-        <v>36.618746042251502</v>
+        <v>36.561249256133998</v>
       </c>
       <c r="BB38">
         <f>AVERAGE(D38:AZ38)</f>
-        <v>587.79248660437804</v>
+        <v>589.56763392078528</v>
       </c>
       <c r="BC38">
-        <f t="shared" si="1"/>
-        <v>9.7965414434063014</v>
+        <f t="shared" si="2"/>
+        <v>9.8261272320130875</v>
       </c>
     </row>
     <row r="39" spans="1:56" ht="15">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="1">
-        <v>219.60191011428799</v>
+        <v>220.00606584548899</v>
       </c>
       <c r="E39" s="1">
-        <v>406.529624462127</v>
+        <v>403.41371941566399</v>
       </c>
       <c r="F39" s="1">
-        <v>534.45315027236904</v>
+        <v>527.81753706932</v>
       </c>
       <c r="G39" s="1">
-        <v>189.005470514297</v>
+        <v>188.75241327285701</v>
       </c>
       <c r="H39" s="1">
-        <v>653.06826734542801</v>
+        <v>655.11269450187604</v>
       </c>
       <c r="I39" s="1">
-        <v>2367.7633092403398</v>
+        <v>2366.8972308635698</v>
       </c>
       <c r="J39" s="1">
-        <v>1655.02566218376</v>
+        <v>1654.0227274894701</v>
       </c>
       <c r="K39" s="1">
-        <v>1714.04376816749</v>
+        <v>1710.74059009552</v>
       </c>
       <c r="L39" s="1">
-        <v>243.068829774856</v>
+        <v>240.706849098205</v>
       </c>
       <c r="M39" s="1">
-        <v>160.025932788848</v>
+        <v>159.69309329986501</v>
       </c>
       <c r="N39" s="1">
-        <v>218.620424270629</v>
+        <v>216.62614130973799</v>
       </c>
       <c r="O39" s="1">
-        <v>173.625039815902</v>
+        <v>173.761008501052</v>
       </c>
       <c r="P39" s="1">
-        <v>324.040900945663</v>
+        <v>312.50671315193102</v>
       </c>
       <c r="Q39" s="1">
-        <v>217.20881867408701</v>
+        <v>215.69824266433699</v>
       </c>
       <c r="R39" s="1">
-        <v>160.242887735366</v>
+        <v>161.974010944366</v>
       </c>
       <c r="S39" s="1">
-        <v>492.78297805786099</v>
+        <v>492.61672210693303</v>
       </c>
       <c r="T39" s="1">
-        <v>164.871334075927</v>
+        <v>164.99923610687199</v>
       </c>
       <c r="U39" s="1">
-        <v>122.617513656616</v>
+        <v>122.72689461708001</v>
       </c>
       <c r="V39" s="1">
-        <v>195.01763343811001</v>
+        <v>194.79113841056801</v>
       </c>
       <c r="W39" s="1">
-        <v>165.87318325042699</v>
+        <v>164.874107599258</v>
       </c>
       <c r="X39" s="1">
-        <v>147.72060489654501</v>
+        <v>148.173868894577</v>
       </c>
       <c r="Y39" s="1">
-        <v>3740.5437839031201</v>
+        <v>3673.3270280361098</v>
       </c>
       <c r="Z39" s="1">
-        <v>212.97484111785801</v>
+        <v>207.80906176567001</v>
       </c>
       <c r="AA39" s="1">
-        <v>156.45893669128401</v>
+        <v>165.38675212860099</v>
       </c>
       <c r="AB39" s="1">
-        <v>110.006740570068</v>
+        <v>109.75160074234</v>
       </c>
       <c r="AC39" s="1">
-        <v>168.73565626144401</v>
+        <v>165.457649946212</v>
       </c>
       <c r="AD39" s="1">
-        <v>150.95265460014301</v>
+        <v>151.62746906280501</v>
       </c>
       <c r="AE39" s="1">
-        <v>151.24999976158099</v>
+        <v>149.06815719604401</v>
       </c>
       <c r="AF39" s="1">
-        <v>124.387351751327</v>
+        <v>123.716135025024</v>
       </c>
       <c r="AG39" s="1">
-        <v>1604.7376749515499</v>
+        <v>1593.6579282283701</v>
       </c>
       <c r="AH39" s="1">
-        <v>1750.2923011779701</v>
+        <v>1763.0939016342099</v>
       </c>
       <c r="AI39" s="1">
-        <v>120.33392596244801</v>
+        <v>118.471574068069</v>
       </c>
       <c r="AJ39" s="1">
-        <v>58.951246738433802</v>
+        <v>59.004231691360403</v>
       </c>
       <c r="AK39" s="1">
-        <v>1700.18312335014</v>
+        <v>1678.29423594474</v>
       </c>
       <c r="AL39" s="1">
-        <v>97.975301980972205</v>
+        <v>95.1342804431915</v>
       </c>
       <c r="AM39" s="1">
-        <v>51.8628215789794</v>
+        <v>51.940921545028601</v>
       </c>
       <c r="AN39" s="1">
-        <v>1618.7094020843499</v>
+        <v>1619.5350325107499</v>
       </c>
       <c r="AO39" s="1">
-        <v>124.986741781234</v>
+        <v>121.207761764526</v>
       </c>
       <c r="AP39" s="1">
-        <v>92.489415168762207</v>
+        <v>92.401749849319401</v>
       </c>
       <c r="AQ39" s="1">
-        <v>108.90237808227501</v>
+        <v>105.902109384536</v>
       </c>
       <c r="AR39" s="1">
-        <v>101.132012367248</v>
+        <v>103.910719633102</v>
       </c>
       <c r="AS39" s="1">
-        <v>101.620849847793</v>
+        <v>99.159111261367798</v>
       </c>
       <c r="AT39" s="1">
-        <v>2057.2025678157802</v>
+        <v>2057.69559645652</v>
       </c>
       <c r="AU39" s="1">
-        <v>50.345473766326897</v>
+        <v>50.3562459945678</v>
       </c>
       <c r="AV39" s="1">
-        <v>2056.45594501495</v>
+        <v>2055.7062509059901</v>
       </c>
       <c r="AW39" s="1">
-        <v>62.225610971450799</v>
+        <v>64.142853736877399</v>
       </c>
       <c r="AX39" s="1">
-        <v>222.08862781524601</v>
+        <v>222.12779426574701</v>
       </c>
       <c r="AY39" s="1">
-        <v>1442.0405988693201</v>
+        <v>1439.72086381912</v>
       </c>
       <c r="AZ39" s="1">
-        <v>169.05198645591699</v>
+        <v>168.31382131576501</v>
       </c>
       <c r="BA39" s="1">
-        <v>34.904342174530001</v>
+        <v>36.618746042251502</v>
       </c>
       <c r="BB39">
         <f>AVERAGE(D39:AZ39)</f>
-        <v>590.45112681875344</v>
+        <v>587.79248660437804</v>
       </c>
       <c r="BC39">
-        <f t="shared" si="1"/>
-        <v>9.8408521136458909</v>
+        <f t="shared" si="2"/>
+        <v>9.7965414434063014</v>
       </c>
     </row>
     <row r="40" spans="1:56" ht="15">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="1">
-        <v>220.91733407974201</v>
+        <v>219.60191011428799</v>
       </c>
       <c r="E40" s="1">
-        <v>404.17352247238102</v>
+        <v>406.529624462127</v>
       </c>
       <c r="F40" s="1">
-        <v>524.87643837928704</v>
+        <v>534.45315027236904</v>
       </c>
       <c r="G40" s="1">
-        <v>179.45832538604699</v>
+        <v>189.005470514297</v>
       </c>
       <c r="H40" s="1">
-        <v>650.77145409584</v>
+        <v>653.06826734542801</v>
       </c>
       <c r="I40" s="1">
-        <v>2365.49472332</v>
+        <v>2367.7633092403398</v>
       </c>
       <c r="J40" s="1">
-        <v>1654.3660457134199</v>
+        <v>1655.02566218376</v>
       </c>
       <c r="K40" s="1">
-        <v>1712.1034567356101</v>
+        <v>1714.04376816749</v>
       </c>
       <c r="L40" s="1">
-        <v>242.75220918655299</v>
+        <v>243.068829774856</v>
       </c>
       <c r="M40" s="1">
-        <v>160.191995859146</v>
+        <v>160.025932788848</v>
       </c>
       <c r="N40" s="1">
-        <v>218.90550398826599</v>
+        <v>218.620424270629</v>
       </c>
       <c r="O40" s="1">
-        <v>173.23886013031</v>
+        <v>173.625039815902</v>
       </c>
       <c r="P40" s="1">
-        <v>318.312755584716</v>
+        <v>324.040900945663</v>
       </c>
       <c r="Q40" s="1">
-        <v>223.25589966773899</v>
+        <v>217.20881867408701</v>
       </c>
       <c r="R40" s="1">
-        <v>160.87766647338799</v>
+        <v>160.242887735366</v>
       </c>
       <c r="S40" s="1">
-        <v>493.15328145027098</v>
+        <v>492.78297805786099</v>
       </c>
       <c r="T40" s="1">
-        <v>164.50951981544401</v>
+        <v>164.871334075927</v>
       </c>
       <c r="U40" s="1">
-        <v>122.91442704200701</v>
+        <v>122.617513656616</v>
       </c>
       <c r="V40" s="1">
-        <v>196.617225646972</v>
+        <v>195.01763343811001</v>
       </c>
       <c r="W40" s="1">
-        <v>164.882106542587</v>
+        <v>165.87318325042699</v>
       </c>
       <c r="X40" s="1">
-        <v>148.12675213813699</v>
+        <v>147.72060489654501</v>
       </c>
       <c r="Y40" s="1">
-        <v>3685.0669338703101</v>
+        <v>3740.5437839031201</v>
       </c>
       <c r="Z40" s="1">
-        <v>212.04382300376801</v>
+        <v>212.97484111785801</v>
       </c>
       <c r="AA40" s="1">
-        <v>167.571160316467</v>
+        <v>156.45893669128401</v>
       </c>
       <c r="AB40" s="1">
-        <v>110.00569343566799</v>
+        <v>110.006740570068</v>
       </c>
       <c r="AC40" s="1">
-        <v>168.64111113548199</v>
+        <v>168.73565626144401</v>
       </c>
       <c r="AD40" s="1">
-        <v>149.52144646644501</v>
+        <v>150.95265460014301</v>
       </c>
       <c r="AE40" s="1">
-        <v>149.50814795494</v>
+        <v>151.24999976158099</v>
       </c>
       <c r="AF40" s="1">
-        <v>124.575204133987</v>
+        <v>124.387351751327</v>
       </c>
       <c r="AG40" s="1">
-        <v>1703.0653574466701</v>
+        <v>1604.7376749515499</v>
       </c>
       <c r="AH40" s="1">
-        <v>1747.34469151496</v>
+        <v>1750.2923011779701</v>
       </c>
       <c r="AI40" s="1">
-        <v>120.374113082885</v>
+        <v>120.33392596244801</v>
       </c>
       <c r="AJ40" s="1">
-        <v>59.0182621479034</v>
+        <v>58.951246738433802</v>
       </c>
       <c r="AK40" s="1">
-        <v>1707.8328557014399</v>
+        <v>1700.18312335014</v>
       </c>
       <c r="AL40" s="1">
-        <v>96.085289478302002</v>
+        <v>97.975301980972205</v>
       </c>
       <c r="AM40" s="1">
-        <v>51.862827777862499</v>
+        <v>51.8628215789794</v>
       </c>
       <c r="AN40" s="1">
-        <v>1621.9713253974901</v>
+        <v>1618.7094020843499</v>
       </c>
       <c r="AO40" s="1">
-        <v>124.582275390625</v>
+        <v>124.986741781234</v>
       </c>
       <c r="AP40" s="1">
-        <v>91.600768089294405</v>
+        <v>92.489415168762207</v>
       </c>
       <c r="AQ40" s="1">
-        <v>108.502305030822</v>
+        <v>108.90237808227501</v>
       </c>
       <c r="AR40" s="1">
-        <v>102.336956977844</v>
+        <v>101.132012367248</v>
       </c>
       <c r="AS40" s="1">
-        <v>101.66282105445801</v>
+        <v>101.620849847793</v>
       </c>
       <c r="AT40" s="1">
-        <v>2058.2113702297202</v>
+        <v>2057.2025678157802</v>
       </c>
       <c r="AU40" s="1">
-        <v>50.480250835418701</v>
+        <v>50.345473766326897</v>
       </c>
       <c r="AV40" s="1">
-        <v>2057.75882291793</v>
+        <v>2056.45594501495</v>
       </c>
       <c r="AW40" s="1">
-        <v>63.20751953125</v>
+        <v>62.225610971450799</v>
       </c>
       <c r="AX40" s="1">
-        <v>222.15818405151299</v>
+        <v>222.08862781524601</v>
       </c>
       <c r="AY40" s="1">
-        <v>1443.0294229984199</v>
+        <v>1442.0405988693201</v>
       </c>
       <c r="AZ40" s="1">
-        <v>168.657898664474</v>
+        <v>169.05198645591699</v>
       </c>
       <c r="BA40" s="1">
-        <v>34.6728739738464</v>
+        <v>34.904342174530001</v>
       </c>
       <c r="BB40">
         <f>AVERAGE(D40:AZ40)</f>
-        <v>591.15461923151486</v>
+        <v>590.45112681875344</v>
       </c>
       <c r="BC40">
-        <f t="shared" si="1"/>
-        <v>9.8525769871919149</v>
+        <f t="shared" si="2"/>
+        <v>9.8408521136458909</v>
       </c>
     </row>
     <row r="41" spans="1:56" ht="15">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="1">
-        <v>219.444981336593</v>
+        <v>220.91733407974201</v>
       </c>
       <c r="E41" s="1">
-        <v>405.96477055549599</v>
+        <v>404.17352247238102</v>
       </c>
       <c r="F41" s="1">
-        <v>475.32861828803999</v>
+        <v>524.87643837928704</v>
       </c>
       <c r="G41" s="1">
-        <v>179.55836224555901</v>
+        <v>179.45832538604699</v>
       </c>
       <c r="H41" s="1">
-        <v>651.08010387420597</v>
+        <v>650.77145409584</v>
       </c>
       <c r="I41" s="1">
-        <v>2366.8520152568799</v>
+        <v>2365.49472332</v>
       </c>
       <c r="J41" s="1">
-        <v>1654.5298359394001</v>
+        <v>1654.3660457134199</v>
       </c>
       <c r="K41" s="1">
-        <v>1712.13457918167</v>
+        <v>1712.1034567356101</v>
       </c>
       <c r="L41" s="1">
-        <v>244.86030197143501</v>
+        <v>242.75220918655299</v>
       </c>
       <c r="M41" s="1">
-        <v>159.65866494178701</v>
+        <v>160.191995859146</v>
       </c>
       <c r="N41" s="1">
-        <v>222.17613840103101</v>
+        <v>218.90550398826599</v>
       </c>
       <c r="O41" s="1">
-        <v>174.168379545211</v>
+        <v>173.23886013031</v>
       </c>
       <c r="P41" s="1">
-        <v>313.73518872261002</v>
+        <v>318.312755584716</v>
       </c>
       <c r="Q41" s="1">
-        <v>229.585600852966</v>
+        <v>223.25589966773899</v>
       </c>
       <c r="R41" s="1">
-        <v>159.648721694946</v>
+        <v>160.87766647338799</v>
       </c>
       <c r="S41" s="1">
-        <v>492.67680072784401</v>
+        <v>493.15328145027098</v>
       </c>
       <c r="T41" s="1">
-        <v>164.91436553001401</v>
+        <v>164.50951981544401</v>
       </c>
       <c r="U41" s="1">
-        <v>122.6175699234</v>
+        <v>122.91442704200701</v>
       </c>
       <c r="V41" s="1">
-        <v>196.01477026939301</v>
+        <v>196.617225646972</v>
       </c>
       <c r="W41" s="1">
-        <v>165.47287678718499</v>
+        <v>164.882106542587</v>
       </c>
       <c r="X41" s="1">
-        <v>151.0654296875</v>
+        <v>148.12675213813699</v>
       </c>
       <c r="Y41" s="1">
-        <v>3874.7878236770598</v>
+        <v>3685.0669338703101</v>
       </c>
       <c r="Z41" s="1">
-        <v>206.35722136497401</v>
+        <v>212.04382300376801</v>
       </c>
       <c r="AA41" s="1">
-        <v>154.307191848754</v>
+        <v>167.571160316467</v>
       </c>
       <c r="AB41" s="1">
-        <v>110.246771812438</v>
+        <v>110.00569343566799</v>
       </c>
       <c r="AC41" s="1">
-        <v>168.56054520606901</v>
+        <v>168.64111113548199</v>
       </c>
       <c r="AD41" s="1">
-        <v>150.69108986854499</v>
+        <v>149.52144646644501</v>
       </c>
       <c r="AE41" s="1">
-        <v>150.112787485122</v>
+        <v>149.50814795494</v>
       </c>
       <c r="AF41" s="1">
-        <v>124.474705696105</v>
+        <v>124.575204133987</v>
       </c>
       <c r="AG41" s="1">
-        <v>1612.12355113029</v>
+        <v>1703.0653574466701</v>
       </c>
       <c r="AH41" s="1">
-        <v>1749.2656583785999</v>
+        <v>1747.34469151496</v>
       </c>
       <c r="AI41" s="1">
-        <v>120.459746837615</v>
+        <v>120.374113082885</v>
       </c>
       <c r="AJ41" s="1">
-        <v>59.0432932376861</v>
+        <v>59.0182621479034</v>
       </c>
       <c r="AK41" s="1">
-        <v>1707.8110678195901</v>
+        <v>1707.8328557014399</v>
       </c>
       <c r="AL41" s="1">
-        <v>95.923967599868703</v>
+        <v>96.085289478302002</v>
       </c>
       <c r="AM41" s="1">
-        <v>51.8471870422363</v>
+        <v>51.862827777862499</v>
       </c>
       <c r="AN41" s="1">
-        <v>1619.52285647392</v>
+        <v>1621.9713253974901</v>
       </c>
       <c r="AO41" s="1">
-        <v>125.02823424339201</v>
+        <v>124.582275390625</v>
       </c>
       <c r="AP41" s="1">
-        <v>91.227840662002507</v>
+        <v>91.600768089294405</v>
       </c>
       <c r="AQ41" s="1">
-        <v>108.666418075561</v>
+        <v>108.502305030822</v>
       </c>
       <c r="AR41" s="1">
-        <v>102.019612073898</v>
+        <v>102.336956977844</v>
       </c>
       <c r="AS41" s="1">
-        <v>101.486025333404</v>
+        <v>101.66282105445801</v>
       </c>
       <c r="AT41" s="1">
-        <v>2059.75461196899</v>
+        <v>2058.2113702297202</v>
       </c>
       <c r="AU41" s="1">
-        <v>50.122859477996798</v>
+        <v>50.480250835418701</v>
       </c>
       <c r="AV41" s="1">
-        <v>2052.3510820865599</v>
+        <v>2057.75882291793</v>
       </c>
       <c r="AW41" s="1">
-        <v>63.085826158523503</v>
+        <v>63.20751953125</v>
       </c>
       <c r="AX41" s="1">
-        <v>222.20507788658099</v>
+        <v>222.15818405151299</v>
       </c>
       <c r="AY41" s="1">
-        <v>1442.9708907604199</v>
+        <v>1443.0294229984199</v>
       </c>
       <c r="AZ41" s="1">
-        <v>168.93596076965301</v>
+        <v>168.657898664474</v>
       </c>
       <c r="BA41" s="1">
-        <v>35.977925539016702</v>
+        <v>34.6728739738464</v>
       </c>
       <c r="BB41">
         <f>AVERAGE(D41:AZ41)</f>
-        <v>591.93628532059245</v>
+        <v>591.15461923151486</v>
       </c>
       <c r="BC41">
-        <f t="shared" si="1"/>
-        <v>9.8656047553432078</v>
+        <f t="shared" si="2"/>
+        <v>9.8525769871919149</v>
       </c>
     </row>
     <row r="42" spans="1:56" ht="15">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="1">
-        <v>219.61124324798499</v>
+        <v>219.444981336593</v>
       </c>
       <c r="E42" s="1">
-        <v>409.15222525596602</v>
+        <v>405.96477055549599</v>
       </c>
       <c r="F42" s="1">
-        <v>468.95893573760901</v>
+        <v>475.32861828803999</v>
       </c>
       <c r="G42" s="1">
-        <v>178.54006052017201</v>
+        <v>179.55836224555901</v>
       </c>
       <c r="H42" s="1">
-        <v>656.89234519004799</v>
+        <v>651.08010387420597</v>
       </c>
       <c r="I42" s="1">
-        <v>2367.8244655132198</v>
+        <v>2366.8520152568799</v>
       </c>
       <c r="J42" s="1">
-        <v>1653.7052149772601</v>
+        <v>1654.5298359394001</v>
       </c>
       <c r="K42" s="1">
-        <v>1712.85260605812</v>
+        <v>1712.13457918167</v>
       </c>
       <c r="L42" s="1">
-        <v>245.79451203346201</v>
+        <v>244.86030197143501</v>
       </c>
       <c r="M42" s="1">
-        <v>159.66991257667499</v>
+        <v>159.65866494178701</v>
       </c>
       <c r="N42" s="1">
-        <v>220.03784012794401</v>
+        <v>222.17613840103101</v>
       </c>
       <c r="O42" s="1">
-        <v>174.34768414497299</v>
+        <v>174.168379545211</v>
       </c>
       <c r="P42" s="1">
-        <v>311.62747931480402</v>
+        <v>313.73518872261002</v>
       </c>
       <c r="Q42" s="1">
-        <v>229.36570906639099</v>
+        <v>229.585600852966</v>
       </c>
       <c r="R42" s="1">
-        <v>159.95982265472401</v>
+        <v>159.648721694946</v>
       </c>
       <c r="S42" s="1">
-        <v>492.45725321769697</v>
+        <v>492.67680072784401</v>
       </c>
       <c r="T42" s="1">
-        <v>165.05781197547901</v>
+        <v>164.91436553001401</v>
       </c>
       <c r="U42" s="1">
-        <v>122.617534399032</v>
+        <v>122.6175699234</v>
       </c>
       <c r="V42" s="1">
-        <v>195.66876983642501</v>
+        <v>196.01477026939301</v>
       </c>
       <c r="W42" s="1">
-        <v>165.886834144592</v>
+        <v>165.47287678718499</v>
       </c>
       <c r="X42" s="1">
-        <v>149.132947444915</v>
+        <v>151.0654296875</v>
       </c>
       <c r="Y42" s="1">
-        <v>3859.92682981491</v>
+        <v>3874.7878236770598</v>
       </c>
       <c r="Z42" s="1">
-        <v>208.16645717620801</v>
+        <v>206.35722136497401</v>
       </c>
       <c r="AA42" s="1">
-        <v>154.21775317192001</v>
+        <v>154.307191848754</v>
       </c>
       <c r="AB42" s="1">
-        <v>110.03473496437</v>
+        <v>110.246771812438</v>
       </c>
       <c r="AC42" s="1">
-        <v>168.14118051528899</v>
+        <v>168.56054520606901</v>
       </c>
       <c r="AD42" s="1">
-        <v>149.963717937469</v>
+        <v>150.69108986854499</v>
       </c>
       <c r="AE42" s="1">
-        <v>150.52459096908501</v>
+        <v>150.112787485122</v>
       </c>
       <c r="AF42" s="1">
-        <v>124.468012094497</v>
+        <v>124.474705696105</v>
       </c>
       <c r="AG42" s="1">
-        <v>1524.95092320442</v>
+        <v>1612.12355113029</v>
       </c>
       <c r="AH42" s="1">
-        <v>1737.54024553298</v>
+        <v>1749.2656583785999</v>
       </c>
       <c r="AI42" s="1">
-        <v>120.35064792633</v>
+        <v>120.459746837615</v>
       </c>
       <c r="AJ42" s="1">
-        <v>59.016274213790801</v>
+        <v>59.0432932376861</v>
       </c>
       <c r="AK42" s="1">
-        <v>1704.7886984348199</v>
+        <v>1707.8110678195901</v>
       </c>
       <c r="AL42" s="1">
-        <v>95.249072074890094</v>
+        <v>95.923967599868703</v>
       </c>
       <c r="AM42" s="1">
-        <v>51.894080400466898</v>
+        <v>51.8471870422363</v>
       </c>
       <c r="AN42" s="1">
-        <v>1621.07643485069</v>
+        <v>1619.52285647392</v>
       </c>
       <c r="AO42" s="1">
-        <v>123.90951991081199</v>
+        <v>125.02823424339201</v>
       </c>
       <c r="AP42" s="1">
-        <v>91.666915178298893</v>
+        <v>91.227840662002507</v>
       </c>
       <c r="AQ42" s="1">
-        <v>108.108747243881</v>
+        <v>108.666418075561</v>
       </c>
       <c r="AR42" s="1">
-        <v>99.925235509872394</v>
+        <v>102.019612073898</v>
       </c>
       <c r="AS42" s="1">
-        <v>100.70778465270899</v>
+        <v>101.486025333404</v>
       </c>
       <c r="AT42" s="1">
-        <v>2044.93547201156</v>
+        <v>2059.75461196899</v>
       </c>
       <c r="AU42" s="1">
-        <v>50.017061233520501</v>
+        <v>50.122859477996798</v>
       </c>
       <c r="AV42" s="1">
-        <v>2075.54591917991</v>
+        <v>2052.3510820865599</v>
       </c>
       <c r="AW42" s="1">
-        <v>62.575748682022002</v>
+        <v>63.085826158523503</v>
       </c>
       <c r="AX42" s="1">
-        <v>222.19512367248501</v>
+        <v>222.20507788658099</v>
       </c>
       <c r="AY42" s="1">
-        <v>1443.8459506034801</v>
+        <v>1442.9708907604199</v>
       </c>
       <c r="AZ42" s="1">
-        <v>168.60188579559301</v>
+        <v>168.93596076965301</v>
       </c>
       <c r="BA42" s="1">
-        <v>34.111655950546201</v>
+        <v>35.977925539016702</v>
       </c>
       <c r="BB42">
         <f>AVERAGE(D42:AZ42)</f>
-        <v>589.62257600803628</v>
+        <v>591.93628532059245</v>
       </c>
       <c r="BC42">
-        <f t="shared" si="1"/>
-        <v>9.827042933467272</v>
+        <f t="shared" si="2"/>
+        <v>9.8656047553432078</v>
       </c>
     </row>
     <row r="43" spans="1:56" ht="15">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="1">
-        <v>219.57481217384299</v>
+        <v>219.61124324798499</v>
       </c>
       <c r="E43" s="1">
-        <v>407.324731826782</v>
+        <v>409.15222525596602</v>
       </c>
       <c r="F43" s="1">
-        <v>468.56229424476601</v>
+        <v>468.95893573760901</v>
       </c>
       <c r="G43" s="1">
-        <v>179.72435569763101</v>
+        <v>178.54006052017201</v>
       </c>
       <c r="H43" s="1">
-        <v>650.12035751342705</v>
+        <v>656.89234519004799</v>
       </c>
       <c r="I43" s="1">
-        <v>2363.8829176425902</v>
+        <v>2367.8244655132198</v>
       </c>
       <c r="J43" s="1">
-        <v>1654.8812537193201</v>
+        <v>1653.7052149772601</v>
       </c>
       <c r="K43" s="1">
-        <v>1711.5897464752099</v>
+        <v>1712.85260605812</v>
       </c>
       <c r="L43" s="1">
-        <v>243.55037069320599</v>
+        <v>245.79451203346201</v>
       </c>
       <c r="M43" s="1">
-        <v>160.204998970031</v>
+        <v>159.66991257667499</v>
       </c>
       <c r="N43" s="1">
-        <v>220.30658173561</v>
+        <v>220.03784012794401</v>
       </c>
       <c r="O43" s="1">
-        <v>173.074532032012</v>
+        <v>174.34768414497299</v>
       </c>
       <c r="P43" s="1">
-        <v>316.850381851196</v>
+        <v>311.62747931480402</v>
       </c>
       <c r="Q43" s="1">
-        <v>209.399848222732</v>
+        <v>229.36570906639099</v>
       </c>
       <c r="R43" s="1">
-        <v>159.971061706542</v>
+        <v>159.95982265472401</v>
       </c>
       <c r="S43" s="1">
-        <v>492.77278161048798</v>
+        <v>492.45725321769697</v>
       </c>
       <c r="T43" s="1">
-        <v>165.1507127285</v>
+        <v>165.05781197547901</v>
       </c>
       <c r="U43" s="1">
-        <v>122.83628559112501</v>
+        <v>122.617534399032</v>
       </c>
       <c r="V43" s="1">
-        <v>195.729316234588</v>
+        <v>195.66876983642501</v>
       </c>
       <c r="W43" s="1">
-        <v>165.95487236976601</v>
+        <v>165.886834144592</v>
       </c>
       <c r="X43" s="1">
-        <v>148.81302142143201</v>
+        <v>149.132947444915</v>
       </c>
       <c r="Y43" s="1">
-        <v>3844.6584477424599</v>
+        <v>3859.92682981491</v>
       </c>
       <c r="Z43" s="1">
-        <v>209.6942923069</v>
+        <v>208.16645717620801</v>
       </c>
       <c r="AA43" s="1">
-        <v>153.54586243629399</v>
+        <v>154.21775317192001</v>
       </c>
       <c r="AB43" s="1">
-        <v>110.29577422142</v>
+        <v>110.03473496437</v>
       </c>
       <c r="AC43" s="1">
-        <v>169.02255868911701</v>
+        <v>168.14118051528899</v>
       </c>
       <c r="AD43" s="1">
-        <v>150.791539192199</v>
+        <v>149.963717937469</v>
       </c>
       <c r="AE43" s="1">
-        <v>150.87581634521399</v>
+        <v>150.52459096908501</v>
       </c>
       <c r="AF43" s="1">
-        <v>124.333360910415</v>
+        <v>124.468012094497</v>
       </c>
       <c r="AG43" s="1">
-        <v>1527.3977925777399</v>
+        <v>1524.95092320442</v>
       </c>
       <c r="AH43" s="1">
-        <v>1727.7187199592499</v>
+        <v>1737.54024553298</v>
       </c>
       <c r="AI43" s="1">
-        <v>120.299007892608</v>
+        <v>120.35064792633</v>
       </c>
       <c r="AJ43" s="1">
-        <v>58.8591916561126</v>
+        <v>59.016274213790801</v>
       </c>
       <c r="AK43" s="1">
-        <v>1792.0811178684201</v>
+        <v>1704.7886984348199</v>
       </c>
       <c r="AL43" s="1">
-        <v>95.550460100173893</v>
+        <v>95.249072074890094</v>
       </c>
       <c r="AM43" s="1">
-        <v>51.831566572189303</v>
+        <v>51.894080400466898</v>
       </c>
       <c r="AN43" s="1">
-        <v>1621.16978359222</v>
+        <v>1621.07643485069</v>
       </c>
       <c r="AO43" s="1">
-        <v>124.88359355926499</v>
+        <v>123.90951991081199</v>
       </c>
       <c r="AP43" s="1">
-        <v>91.835560798645005</v>
+        <v>91.666915178298893</v>
       </c>
       <c r="AQ43" s="1">
-        <v>109.144169807434</v>
+        <v>108.108747243881</v>
       </c>
       <c r="AR43" s="1">
-        <v>100.780326604843</v>
+        <v>99.925235509872394</v>
       </c>
       <c r="AS43" s="1">
-        <v>101.238223791122</v>
+        <v>100.70778465270899</v>
       </c>
       <c r="AT43" s="1">
-        <v>2080.3043930530498</v>
+        <v>2044.93547201156</v>
       </c>
       <c r="AU43" s="1">
-        <v>49.989320039749103</v>
+        <v>50.017061233520501</v>
       </c>
       <c r="AV43" s="1">
-        <v>2090.4205436706502</v>
+        <v>2075.54591917991</v>
       </c>
       <c r="AW43" s="1">
-        <v>64.866388082504201</v>
+        <v>62.575748682022002</v>
       </c>
       <c r="AX43" s="1">
-        <v>222.25084519386201</v>
+        <v>222.19512367248501</v>
       </c>
       <c r="AY43" s="1">
-        <v>1463.37501239776</v>
+        <v>1443.8459506034801</v>
       </c>
       <c r="AZ43" s="1">
-        <v>168.40592622756901</v>
+        <v>168.60188579559301</v>
       </c>
       <c r="BA43" s="1">
-        <v>34.953277587890597</v>
+        <v>34.111655950546201</v>
       </c>
       <c r="BB43">
         <f>AVERAGE(D43:AZ43)</f>
-        <v>591.95703734183667</v>
+        <v>589.62257600803628</v>
       </c>
       <c r="BC43">
-        <f t="shared" si="1"/>
-        <v>9.865950622363945</v>
+        <f t="shared" si="2"/>
+        <v>9.827042933467272</v>
       </c>
     </row>
     <row r="44" spans="1:56" ht="15">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D44" s="1">
-        <v>3966.1647205352701</v>
+        <v>219.57481217384299</v>
       </c>
       <c r="E44" s="1">
-        <v>7653.6516275405802</v>
+        <v>407.324731826782</v>
       </c>
       <c r="F44" s="1">
-        <v>8999.6999163627606</v>
+        <v>468.56229424476601</v>
       </c>
       <c r="G44" s="1">
-        <v>3295.77228665351</v>
+        <v>179.72435569763101</v>
       </c>
       <c r="H44" s="1">
-        <v>11448.174224615001</v>
+        <v>650.12035751342705</v>
       </c>
       <c r="I44" s="1">
-        <v>42596.190979957501</v>
+        <v>2363.8829176425902</v>
       </c>
       <c r="J44" s="1">
-        <v>30166.3011825084</v>
+        <v>1654.8812537193201</v>
       </c>
       <c r="K44" s="1">
-        <v>30822.120342016198</v>
+        <v>1711.5897464752099</v>
       </c>
       <c r="L44" s="1">
-        <v>4370.2746319770804</v>
+        <v>243.55037069320599</v>
       </c>
       <c r="M44" s="1">
-        <v>2883.5891160964902</v>
+        <v>160.204998970031</v>
       </c>
       <c r="N44" s="1">
-        <v>3961.5214664936002</v>
+        <v>220.30658173561</v>
       </c>
       <c r="O44" s="1">
-        <v>3141.10787248611</v>
+        <v>173.074532032012</v>
       </c>
       <c r="P44" s="1">
-        <v>5707.0991291999799</v>
+        <v>316.850381851196</v>
       </c>
       <c r="Q44" s="1">
-        <v>3937.1405863761902</v>
+        <v>209.399848222732</v>
       </c>
       <c r="R44" s="1">
-        <v>2911.1368849277401</v>
+        <v>159.971061706542</v>
       </c>
       <c r="S44" s="1">
-        <v>8877.4475183486902</v>
+        <v>492.77278161048798</v>
       </c>
       <c r="T44" s="1">
-        <v>3038.0949301719602</v>
+        <v>165.1507127285</v>
       </c>
       <c r="U44" s="1">
-        <v>2233.00594639778</v>
+        <v>122.83628559112501</v>
       </c>
       <c r="V44" s="1">
-        <v>3519.9752485752101</v>
+        <v>195.729316234588</v>
       </c>
       <c r="W44" s="1">
-        <v>3055.0838837623501</v>
+        <v>165.95487236976601</v>
       </c>
       <c r="X44" s="1">
-        <v>2678.7100136280001</v>
+        <v>148.81302142143201</v>
       </c>
       <c r="Y44" s="1">
-        <v>67549.677532434405</v>
+        <v>3844.6584477424599</v>
       </c>
       <c r="Z44" s="1">
-        <v>3766.6928751468599</v>
+        <v>209.6942923069</v>
       </c>
       <c r="AA44" s="1">
-        <v>2814.70007610321</v>
+        <v>153.54586243629399</v>
       </c>
       <c r="AB44" s="1">
-        <v>1989.1379969120001</v>
+        <v>110.29577422142</v>
       </c>
       <c r="AC44" s="1">
-        <v>3037.3856775760601</v>
+        <v>169.02255868911701</v>
       </c>
       <c r="AD44" s="1">
-        <v>2724.2678236961301</v>
+        <v>150.791539192199</v>
       </c>
       <c r="AE44" s="1">
-        <v>2745.2261083126</v>
+        <v>150.87581634521399</v>
       </c>
       <c r="AF44" s="1">
-        <v>2248.7279126644098</v>
+        <v>124.333360910415</v>
       </c>
       <c r="AG44" s="1">
-        <v>57426.852674007401</v>
+        <v>1527.3977925777399</v>
       </c>
       <c r="AH44" s="1">
-        <v>31660.396894216501</v>
+        <v>1727.7187199592499</v>
       </c>
       <c r="AI44" s="1">
-        <v>2181.9025635719299</v>
+        <v>120.299007892608</v>
       </c>
       <c r="AJ44" s="1">
-        <v>1078.2822961807201</v>
+        <v>58.8591916561126</v>
       </c>
       <c r="AK44" s="1">
-        <v>30444.9785103797</v>
+        <v>1792.0811178684201</v>
       </c>
       <c r="AL44" s="1">
-        <v>1777.7417430877599</v>
+        <v>95.550460100173893</v>
       </c>
       <c r="AM44" s="1">
-        <v>938.29676175117402</v>
+        <v>51.831566572189303</v>
       </c>
       <c r="AN44" s="1">
-        <v>29329.9701857566</v>
+        <v>1621.16978359222</v>
       </c>
       <c r="AO44" s="1">
-        <v>2357.79390573501</v>
+        <v>124.88359355926499</v>
       </c>
       <c r="AP44" s="1">
-        <f>SUM(AP26:AP43)</f>
-        <v>1680.7342112064348</v>
+        <v>91.835560798645005</v>
       </c>
       <c r="AQ44" s="1">
-        <v>1959.97455453872</v>
+        <v>109.144169807434</v>
       </c>
       <c r="AR44" s="1">
-        <v>1891.63966560363</v>
+        <v>100.780326604843</v>
       </c>
       <c r="AS44" s="1">
-        <v>1854.67726969718</v>
+        <v>101.238223791122</v>
       </c>
       <c r="AT44" s="1">
-        <v>37278.678440809199</v>
+        <v>2080.3043930530498</v>
       </c>
       <c r="AU44" s="1">
-        <v>931.748652219772</v>
+        <v>49.989320039749103</v>
       </c>
       <c r="AV44" s="1">
-        <v>37187.472870588303</v>
+        <v>2090.4205436706502</v>
       </c>
       <c r="AW44" s="1">
-        <v>1124.15845489501</v>
+        <v>64.866388082504201</v>
       </c>
       <c r="AX44" s="1">
-        <v>4025.0492441654201</v>
+        <v>222.25084519386201</v>
       </c>
       <c r="AY44" s="1">
-        <v>25996.340340137402</v>
+        <v>1463.37501239776</v>
       </c>
       <c r="AZ44" s="1">
-        <v>3068.4939410686402</v>
+        <v>168.40592622756901</v>
       </c>
       <c r="BA44" s="1">
-        <v>661.105518341064</v>
+        <v>34.953277587890597</v>
       </c>
       <c r="BB44">
-        <f>SUM(D44:AZ44)</f>
-        <v>550333.26169109275</v>
+        <f>AVERAGE(D44:AZ44)</f>
+        <v>591.95703734183667</v>
       </c>
       <c r="BC44">
-        <f>BB44/60</f>
-        <v>9172.2210281848784</v>
-      </c>
-      <c r="BD44">
-        <f>BC44/60</f>
-        <v>152.87035046974796</v>
+        <f t="shared" si="2"/>
+        <v>9.865950622363945</v>
       </c>
     </row>
     <row r="45" spans="1:56" ht="15">
       <c r="A45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45">
-        <f>AVERAGE(D26:D43)</f>
-        <v>220.34248447418162</v>
-      </c>
-      <c r="E45">
-        <f>AVERAGE(E26:E43)</f>
-        <v>425.20281277762473</v>
-      </c>
-      <c r="F45">
-        <f>AVERAGE(F26:F43)</f>
-        <v>499.98327382405557</v>
-      </c>
-      <c r="G45">
-        <f>AVERAGE(G26:G43)</f>
-        <v>183.09840480486505</v>
-      </c>
-      <c r="H45">
-        <f>AVERAGE(H26:H43)</f>
-        <v>636.00964981979769</v>
-      </c>
-      <c r="I45">
-        <f>AVERAGE(I26:I43)</f>
-        <v>2366.4541862673195</v>
-      </c>
-      <c r="J45">
-        <f>AVERAGE(J26:J43)</f>
-        <v>1675.9055657784093</v>
-      </c>
-      <c r="K45">
-        <f>AVERAGE(K26:K43)</f>
-        <v>1712.3400190008972</v>
-      </c>
-      <c r="L45">
-        <f>AVERAGE(L26:L43)</f>
-        <v>242.79303510983735</v>
-      </c>
-      <c r="M45">
-        <f>AVERAGE(M26:M43)</f>
-        <v>160.19933976067381</v>
-      </c>
-      <c r="N45">
-        <f>AVERAGE(N26:N43)</f>
-        <v>220.08452591631107</v>
-      </c>
-      <c r="O45">
-        <f>AVERAGE(O26:O43)</f>
-        <v>174.50593754980241</v>
-      </c>
-      <c r="P45">
-        <f>AVERAGE(P26:P43)</f>
-        <v>317.0610325601362</v>
-      </c>
-      <c r="Q45">
-        <f>AVERAGE(Q26:Q43)</f>
-        <v>218.72986634572314</v>
-      </c>
-      <c r="R45">
-        <f t="shared" ref="R45" si="2">AVERAGE(R26:R43)</f>
-        <v>161.72982694043</v>
-      </c>
-      <c r="S45">
-        <f>AVERAGE(S26:S43)</f>
-        <v>493.19152879714926</v>
-      </c>
-      <c r="T45">
-        <f>AVERAGE(T26:T43)</f>
-        <v>168.78305167621991</v>
-      </c>
-      <c r="U45">
-        <f>AVERAGE(U26:U43)</f>
-        <v>124.05588591098733</v>
-      </c>
-      <c r="V45">
-        <f>AVERAGE(V26:V43)</f>
-        <v>195.55418047640006</v>
-      </c>
-      <c r="W45">
-        <f>AVERAGE(W26:W43)</f>
-        <v>169.72682513130991</v>
-      </c>
-      <c r="X45">
-        <f>AVERAGE(X26:X43)</f>
-        <v>148.8171691099798</v>
-      </c>
-      <c r="Y45">
-        <f>AVERAGE(Y26:Y43)</f>
-        <v>3752.7598355876025</v>
-      </c>
-      <c r="Z45">
-        <f>AVERAGE(Z26:Z43)</f>
-        <v>209.2606850465132</v>
-      </c>
-      <c r="AA45">
-        <f>AVERAGE(AA26:AA43)</f>
-        <v>156.37217197153257</v>
-      </c>
-      <c r="AB45">
-        <f>AVERAGE(AB26:AB43)</f>
-        <v>110.50766649511073</v>
-      </c>
-      <c r="AC45">
-        <f>AVERAGE(AC26:AC43)</f>
-        <v>168.74364875422532</v>
-      </c>
-      <c r="AD45">
-        <f>AVERAGE(AD26:AD43)</f>
-        <v>151.34821242756266</v>
-      </c>
-      <c r="AE45">
-        <f>AVERAGE(AE26:AE43)</f>
-        <v>152.51250599490211</v>
-      </c>
-      <c r="AF45">
-        <f>AVERAGE(AF26:AF43)</f>
-        <v>124.9293284813558</v>
-      </c>
-      <c r="AG45">
-        <f>AVERAGE(AG26:AG43)</f>
-        <v>3190.3807041115183</v>
-      </c>
-      <c r="AH45">
-        <f>AVERAGE(AH26:AH43)</f>
-        <v>1758.9109385675793</v>
-      </c>
-      <c r="AI45">
-        <f>AVERAGE(AI26:AI43)</f>
-        <v>121.21680908732884</v>
-      </c>
-      <c r="AJ45">
-        <f>AVERAGE(AJ26:AJ43)</f>
-        <v>59.904461118909985</v>
-      </c>
-      <c r="AK45">
-        <f>AVERAGE(AK26:AK43)</f>
-        <v>1691.3876950210943</v>
-      </c>
-      <c r="AL45">
-        <f>AVERAGE(AL26:AL43)</f>
-        <v>98.763430171542637</v>
-      </c>
-      <c r="AM45">
-        <f>AVERAGE(AM26:AM43)</f>
-        <v>52.127597875065241</v>
-      </c>
-      <c r="AN45">
-        <f>AVERAGE(AN26:AN43)</f>
-        <v>1629.44278809759</v>
-      </c>
-      <c r="AO45">
-        <f>AVERAGE(AO26:AO43)</f>
-        <v>130.98855031861157</v>
-      </c>
-      <c r="AP45">
-        <f>AVERAGE(AP26:AP43)</f>
-        <v>93.374122844801931</v>
-      </c>
-      <c r="AQ45">
-        <f>AVERAGE(AQ26:AQ43)</f>
-        <v>108.88747525215101</v>
-      </c>
-      <c r="AR45">
-        <f>AVERAGE(AR26:AR43)</f>
-        <v>105.09109253353503</v>
-      </c>
-      <c r="AS45">
-        <f>AVERAGE(AS26:AS43)</f>
-        <v>103.03762609428789</v>
-      </c>
-      <c r="AT45">
-        <f>AVERAGE(AT26:AT43)</f>
-        <v>2071.0376911560638</v>
-      </c>
-      <c r="AU45">
-        <f>AVERAGE(AU26:AU43)</f>
-        <v>51.76375867260824</v>
-      </c>
-      <c r="AV45">
-        <f>AVERAGE(AV26:AV43)</f>
-        <v>2065.9707150326794</v>
-      </c>
-      <c r="AW45">
-        <f>AVERAGE(AW26:AW43)</f>
-        <v>62.453217519654132</v>
-      </c>
-      <c r="AX45">
-        <f t="shared" ref="AX45" si="3">AVERAGE(AX26:AX43)</f>
-        <v>223.61384689807841</v>
-      </c>
-      <c r="AY45">
-        <f>AVERAGE(AY26:AY43)</f>
-        <v>1444.2411300076337</v>
-      </c>
-      <c r="AZ45">
-        <f>AVERAGE(AZ26:AZ43)</f>
-        <v>170.47183003690458</v>
-      </c>
-      <c r="BA45">
-        <f>AVERAGE(BA26:BA43)</f>
-        <v>36.727973553869425</v>
+        <v>144</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3966.1647205352701</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7653.6516275405802</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8999.6999163627606</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3295.77228665351</v>
+      </c>
+      <c r="H45" s="1">
+        <v>11448.174224615001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>42596.190979957501</v>
+      </c>
+      <c r="J45" s="1">
+        <v>30166.3011825084</v>
+      </c>
+      <c r="K45" s="1">
+        <v>30822.120342016198</v>
+      </c>
+      <c r="L45" s="1">
+        <v>4370.2746319770804</v>
+      </c>
+      <c r="M45" s="1">
+        <v>2883.5891160964902</v>
+      </c>
+      <c r="N45" s="1">
+        <v>3961.5214664936002</v>
+      </c>
+      <c r="O45" s="1">
+        <v>3141.10787248611</v>
+      </c>
+      <c r="P45" s="1">
+        <v>5707.0991291999799</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>3937.1405863761902</v>
+      </c>
+      <c r="R45" s="1">
+        <v>2911.1368849277401</v>
+      </c>
+      <c r="S45" s="1">
+        <v>8877.4475183486902</v>
+      </c>
+      <c r="T45" s="1">
+        <v>3038.0949301719602</v>
+      </c>
+      <c r="U45" s="1">
+        <v>2233.00594639778</v>
+      </c>
+      <c r="V45" s="1">
+        <v>3519.9752485752101</v>
+      </c>
+      <c r="W45" s="1">
+        <v>3055.0838837623501</v>
+      </c>
+      <c r="X45" s="1">
+        <v>2678.7100136280001</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>67549.677532434405</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>3766.6928751468599</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>2814.70007610321</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>1989.1379969120001</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>3037.3856775760601</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>2724.2678236961301</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>2745.2261083126</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>2248.7279126644098</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>57426.852674007401</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>31660.396894216501</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>2181.9025635719299</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>1078.2822961807201</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>30444.9785103797</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>1777.7417430877599</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>938.29676175117402</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>29329.9701857566</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>2357.79390573501</v>
+      </c>
+      <c r="AP45" s="1">
+        <f>SUM(AP27:AP44)</f>
+        <v>1680.7342112064348</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>1959.97455453872</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>1891.63966560363</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>1854.67726969718</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>37278.678440809199</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>931.748652219772</v>
+      </c>
+      <c r="AV45" s="1">
+        <v>37187.472870588303</v>
+      </c>
+      <c r="AW45" s="1">
+        <v>1124.15845489501</v>
+      </c>
+      <c r="AX45" s="1">
+        <v>4025.0492441654201</v>
+      </c>
+      <c r="AY45" s="1">
+        <v>25996.340340137402</v>
+      </c>
+      <c r="AZ45" s="1">
+        <v>3068.4939410686402</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>661.105518341064</v>
       </c>
       <c r="BB45">
-        <f>AVERAGE(D45:AZ45)</f>
-        <v>623.96057422874594</v>
+        <f>SUM(D45:AZ45)</f>
+        <v>550333.26169109275</v>
+      </c>
+      <c r="BC45">
+        <f>BB45/60</f>
+        <v>9172.2210281848784</v>
+      </c>
+      <c r="BD45">
+        <f>BC45/60</f>
+        <v>152.87035046974796</v>
       </c>
     </row>
     <row r="46" spans="1:56" ht="15">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D46">
-        <f>D45/60</f>
-        <v>3.6723747412363603</v>
+        <f>AVERAGE(D27:D44)</f>
+        <v>220.34248447418162</v>
       </c>
       <c r="E46">
-        <f>E45/60</f>
-        <v>7.0867135462937458</v>
+        <f>AVERAGE(E27:E44)</f>
+        <v>425.20281277762473</v>
       </c>
       <c r="F46">
-        <f>F45/60</f>
-        <v>8.3330545637342599</v>
+        <f>AVERAGE(F27:F44)</f>
+        <v>499.98327382405557</v>
       </c>
       <c r="G46">
-        <f>G45/60</f>
-        <v>3.0516400800810843</v>
+        <f>AVERAGE(G27:G44)</f>
+        <v>183.09840480486505</v>
       </c>
       <c r="H46">
-        <f>H45/60</f>
-        <v>10.600160830329962</v>
+        <f>AVERAGE(H27:H44)</f>
+        <v>636.00964981979769</v>
       </c>
       <c r="I46">
-        <f>I45/60</f>
-        <v>39.440903104455323</v>
+        <f>AVERAGE(I27:I44)</f>
+        <v>2366.4541862673195</v>
       </c>
       <c r="J46">
-        <f>J45/60</f>
-        <v>27.931759429640156</v>
+        <f>AVERAGE(J27:J44)</f>
+        <v>1675.9055657784093</v>
       </c>
       <c r="K46">
-        <f>K45/60</f>
-        <v>28.539000316681619</v>
+        <f>AVERAGE(K27:K44)</f>
+        <v>1712.3400190008972</v>
       </c>
       <c r="L46">
-        <f>L45/60</f>
-        <v>4.0465505851639554</v>
+        <f>AVERAGE(L27:L44)</f>
+        <v>242.79303510983735</v>
       </c>
       <c r="M46">
-        <f>M45/60</f>
-        <v>2.66998899601123</v>
+        <f>AVERAGE(M27:M44)</f>
+        <v>160.19933976067381</v>
       </c>
       <c r="N46">
-        <f>N45/60</f>
-        <v>3.6680754319385178</v>
+        <f>AVERAGE(N27:N44)</f>
+        <v>220.08452591631107</v>
       </c>
       <c r="O46">
-        <f>O45/60</f>
-        <v>2.9084322924967068</v>
+        <f>AVERAGE(O27:O44)</f>
+        <v>174.50593754980241</v>
       </c>
       <c r="P46">
-        <f>P45/60</f>
-        <v>5.2843505426689363</v>
+        <f>AVERAGE(P27:P44)</f>
+        <v>317.0610325601362</v>
       </c>
       <c r="Q46">
-        <f>Q45/60</f>
-        <v>3.645497772428719</v>
+        <f>AVERAGE(Q27:Q44)</f>
+        <v>218.72986634572314</v>
       </c>
       <c r="R46">
-        <f t="shared" ref="R46:AX46" si="4">R45/60</f>
-        <v>2.6954971156738332</v>
+        <f t="shared" ref="R46" si="3">AVERAGE(R27:R44)</f>
+        <v>161.72982694043</v>
       </c>
       <c r="S46">
-        <f>S45/60</f>
-        <v>8.2198588132858212</v>
+        <f>AVERAGE(S27:S44)</f>
+        <v>493.19152879714926</v>
       </c>
       <c r="T46">
-        <f>T45/60</f>
-        <v>2.813050861270332</v>
+        <f>AVERAGE(T27:T44)</f>
+        <v>168.78305167621991</v>
       </c>
       <c r="U46">
-        <f>U45/60</f>
-        <v>2.0675980985164553</v>
+        <f>AVERAGE(U27:U44)</f>
+        <v>124.05588591098733</v>
       </c>
       <c r="V46">
-        <f>V45/60</f>
-        <v>3.2592363412733345</v>
+        <f>AVERAGE(V27:V44)</f>
+        <v>195.55418047640006</v>
       </c>
       <c r="W46">
-        <f>W45/60</f>
-        <v>2.8287804188551653</v>
+        <f>AVERAGE(W27:W44)</f>
+        <v>169.72682513130991</v>
       </c>
       <c r="X46">
-        <f>X45/60</f>
-        <v>2.4802861518329968</v>
+        <f>AVERAGE(X27:X44)</f>
+        <v>148.8171691099798</v>
       </c>
       <c r="Y46">
-        <f>Y45/60</f>
-        <v>62.545997259793374</v>
+        <f>AVERAGE(Y27:Y44)</f>
+        <v>3752.7598355876025</v>
       </c>
       <c r="Z46">
-        <f>Z45/60</f>
-        <v>3.4876780841085533</v>
+        <f>AVERAGE(Z27:Z44)</f>
+        <v>209.2606850465132</v>
       </c>
       <c r="AA46">
-        <f>AA45/60</f>
-        <v>2.6062028661922096</v>
+        <f>AVERAGE(AA27:AA44)</f>
+        <v>156.37217197153257</v>
       </c>
       <c r="AB46">
-        <f>AB45/60</f>
-        <v>1.8417944415851788</v>
+        <f>AVERAGE(AB27:AB44)</f>
+        <v>110.50766649511073</v>
       </c>
       <c r="AC46">
-        <f>AC45/60</f>
-        <v>2.8123941459037551</v>
+        <f>AVERAGE(AC27:AC44)</f>
+        <v>168.74364875422532</v>
       </c>
       <c r="AD46">
-        <f>AD45/60</f>
-        <v>2.5224702071260441</v>
+        <f>AVERAGE(AD27:AD44)</f>
+        <v>151.34821242756266</v>
       </c>
       <c r="AE46">
-        <f>AE45/60</f>
-        <v>2.541875099915035</v>
+        <f>AVERAGE(AE27:AE44)</f>
+        <v>152.51250599490211</v>
       </c>
       <c r="AF46">
-        <f>AF45/60</f>
-        <v>2.0821554746892632</v>
+        <f>AVERAGE(AF27:AF44)</f>
+        <v>124.9293284813558</v>
       </c>
       <c r="AG46">
-        <f>AG45/60</f>
-        <v>53.17301173519197</v>
+        <f>AVERAGE(AG27:AG44)</f>
+        <v>3190.3807041115183</v>
       </c>
       <c r="AH46">
-        <f>AH45/60</f>
-        <v>29.315182309459654</v>
+        <f>AVERAGE(AH27:AH44)</f>
+        <v>1758.9109385675793</v>
       </c>
       <c r="AI46">
-        <f>AI45/60</f>
-        <v>2.0202801514554807</v>
+        <f>AVERAGE(AI27:AI44)</f>
+        <v>121.21680908732884</v>
       </c>
       <c r="AJ46">
-        <f>AJ45/60</f>
-        <v>0.99840768531516644</v>
+        <f>AVERAGE(AJ27:AJ44)</f>
+        <v>59.904461118909985</v>
       </c>
       <c r="AK46">
-        <f>AK45/60</f>
-        <v>28.189794917018236</v>
+        <f>AVERAGE(AK27:AK44)</f>
+        <v>1691.3876950210943</v>
       </c>
       <c r="AL46">
-        <f>AL45/60</f>
-        <v>1.6460571695257107</v>
+        <f>AVERAGE(AL27:AL44)</f>
+        <v>98.763430171542637</v>
       </c>
       <c r="AM46">
-        <f>AM45/60</f>
-        <v>0.86879329791775406</v>
+        <f>AVERAGE(AM27:AM44)</f>
+        <v>52.127597875065241</v>
       </c>
       <c r="AN46">
-        <f>AN45/60</f>
-        <v>27.157379801626501</v>
+        <f>AVERAGE(AN27:AN44)</f>
+        <v>1629.44278809759</v>
       </c>
       <c r="AO46">
-        <f>AO45/60</f>
-        <v>2.1831425053101929</v>
+        <f>AVERAGE(AO27:AO44)</f>
+        <v>130.98855031861157</v>
       </c>
       <c r="AP46">
-        <f>AP45/60</f>
-        <v>1.5562353807466989</v>
+        <f>AVERAGE(AP27:AP44)</f>
+        <v>93.374122844801931</v>
       </c>
       <c r="AQ46">
-        <f>AQ45/60</f>
-        <v>1.8147912542025169</v>
+        <f>AVERAGE(AQ27:AQ44)</f>
+        <v>108.88747525215101</v>
       </c>
       <c r="AR46">
-        <f>AR45/60</f>
-        <v>1.7515182088922505</v>
+        <f>AVERAGE(AR27:AR44)</f>
+        <v>105.09109253353503</v>
       </c>
       <c r="AS46">
-        <f>AS45/60</f>
-        <v>1.7172937682381315</v>
+        <f>AVERAGE(AS27:AS44)</f>
+        <v>103.03762609428789</v>
       </c>
       <c r="AT46">
-        <f>AT45/60</f>
-        <v>34.517294852601061</v>
+        <f>AVERAGE(AT27:AT44)</f>
+        <v>2071.0376911560638</v>
       </c>
       <c r="AU46">
-        <f>AU45/60</f>
-        <v>0.8627293112101373</v>
+        <f>AVERAGE(AU27:AU44)</f>
+        <v>51.76375867260824</v>
       </c>
       <c r="AV46">
-        <f>AV45/60</f>
-        <v>34.432845250544659</v>
+        <f>AVERAGE(AV27:AV44)</f>
+        <v>2065.9707150326794</v>
       </c>
       <c r="AW46">
-        <f>AW45/60</f>
-        <v>1.0408869586609022</v>
+        <f>AVERAGE(AW27:AW44)</f>
+        <v>62.453217519654132</v>
       </c>
       <c r="AX46">
-        <f t="shared" si="4"/>
-        <v>3.7268974483013069</v>
+        <f t="shared" ref="AX46" si="4">AVERAGE(AX27:AX44)</f>
+        <v>223.61384689807841</v>
       </c>
       <c r="AY46">
-        <f>AY45/60</f>
-        <v>24.07068550012723</v>
+        <f>AVERAGE(AY27:AY44)</f>
+        <v>1444.2411300076337</v>
       </c>
       <c r="AZ46">
-        <f>AZ45/60</f>
-        <v>2.8411971672817429</v>
+        <f>AVERAGE(AZ27:AZ44)</f>
+        <v>170.47183003690458</v>
       </c>
       <c r="BA46">
-        <f>BA45/60</f>
-        <v>0.61213289256449044</v>
+        <f>AVERAGE(BA27:BA44)</f>
+        <v>36.727973553869425</v>
       </c>
       <c r="BB46">
         <f>AVERAGE(D46:AZ46)</f>
+        <v>623.96057422874594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56" ht="15">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47">
+        <f>D46/60</f>
+        <v>3.6723747412363603</v>
+      </c>
+      <c r="E47">
+        <f>E46/60</f>
+        <v>7.0867135462937458</v>
+      </c>
+      <c r="F47">
+        <f>F46/60</f>
+        <v>8.3330545637342599</v>
+      </c>
+      <c r="G47">
+        <f>G46/60</f>
+        <v>3.0516400800810843</v>
+      </c>
+      <c r="H47">
+        <f>H46/60</f>
+        <v>10.600160830329962</v>
+      </c>
+      <c r="I47">
+        <f>I46/60</f>
+        <v>39.440903104455323</v>
+      </c>
+      <c r="J47">
+        <f>J46/60</f>
+        <v>27.931759429640156</v>
+      </c>
+      <c r="K47">
+        <f>K46/60</f>
+        <v>28.539000316681619</v>
+      </c>
+      <c r="L47">
+        <f>L46/60</f>
+        <v>4.0465505851639554</v>
+      </c>
+      <c r="M47">
+        <f>M46/60</f>
+        <v>2.66998899601123</v>
+      </c>
+      <c r="N47">
+        <f>N46/60</f>
+        <v>3.6680754319385178</v>
+      </c>
+      <c r="O47">
+        <f>O46/60</f>
+        <v>2.9084322924967068</v>
+      </c>
+      <c r="P47">
+        <f>P46/60</f>
+        <v>5.2843505426689363</v>
+      </c>
+      <c r="Q47">
+        <f>Q46/60</f>
+        <v>3.645497772428719</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ref="R47:AX47" si="5">R46/60</f>
+        <v>2.6954971156738332</v>
+      </c>
+      <c r="S47">
+        <f>S46/60</f>
+        <v>8.2198588132858212</v>
+      </c>
+      <c r="T47">
+        <f>T46/60</f>
+        <v>2.813050861270332</v>
+      </c>
+      <c r="U47">
+        <f>U46/60</f>
+        <v>2.0675980985164553</v>
+      </c>
+      <c r="V47">
+        <f>V46/60</f>
+        <v>3.2592363412733345</v>
+      </c>
+      <c r="W47">
+        <f>W46/60</f>
+        <v>2.8287804188551653</v>
+      </c>
+      <c r="X47">
+        <f>X46/60</f>
+        <v>2.4802861518329968</v>
+      </c>
+      <c r="Y47">
+        <f>Y46/60</f>
+        <v>62.545997259793374</v>
+      </c>
+      <c r="Z47">
+        <f>Z46/60</f>
+        <v>3.4876780841085533</v>
+      </c>
+      <c r="AA47">
+        <f>AA46/60</f>
+        <v>2.6062028661922096</v>
+      </c>
+      <c r="AB47">
+        <f>AB46/60</f>
+        <v>1.8417944415851788</v>
+      </c>
+      <c r="AC47">
+        <f>AC46/60</f>
+        <v>2.8123941459037551</v>
+      </c>
+      <c r="AD47">
+        <f>AD46/60</f>
+        <v>2.5224702071260441</v>
+      </c>
+      <c r="AE47">
+        <f>AE46/60</f>
+        <v>2.541875099915035</v>
+      </c>
+      <c r="AF47">
+        <f>AF46/60</f>
+        <v>2.0821554746892632</v>
+      </c>
+      <c r="AG47">
+        <f>AG46/60</f>
+        <v>53.17301173519197</v>
+      </c>
+      <c r="AH47">
+        <f>AH46/60</f>
+        <v>29.315182309459654</v>
+      </c>
+      <c r="AI47">
+        <f>AI46/60</f>
+        <v>2.0202801514554807</v>
+      </c>
+      <c r="AJ47">
+        <f>AJ46/60</f>
+        <v>0.99840768531516644</v>
+      </c>
+      <c r="AK47">
+        <f>AK46/60</f>
+        <v>28.189794917018236</v>
+      </c>
+      <c r="AL47">
+        <f>AL46/60</f>
+        <v>1.6460571695257107</v>
+      </c>
+      <c r="AM47">
+        <f>AM46/60</f>
+        <v>0.86879329791775406</v>
+      </c>
+      <c r="AN47">
+        <f>AN46/60</f>
+        <v>27.157379801626501</v>
+      </c>
+      <c r="AO47">
+        <f>AO46/60</f>
+        <v>2.1831425053101929</v>
+      </c>
+      <c r="AP47">
+        <f>AP46/60</f>
+        <v>1.5562353807466989</v>
+      </c>
+      <c r="AQ47">
+        <f>AQ46/60</f>
+        <v>1.8147912542025169</v>
+      </c>
+      <c r="AR47">
+        <f>AR46/60</f>
+        <v>1.7515182088922505</v>
+      </c>
+      <c r="AS47">
+        <f>AS46/60</f>
+        <v>1.7172937682381315</v>
+      </c>
+      <c r="AT47">
+        <f>AT46/60</f>
+        <v>34.517294852601061</v>
+      </c>
+      <c r="AU47">
+        <f>AU46/60</f>
+        <v>0.8627293112101373</v>
+      </c>
+      <c r="AV47">
+        <f>AV46/60</f>
+        <v>34.432845250544659</v>
+      </c>
+      <c r="AW47">
+        <f>AW46/60</f>
+        <v>1.0408869586609022</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="5"/>
+        <v>3.7268974483013069</v>
+      </c>
+      <c r="AY47">
+        <f>AY46/60</f>
+        <v>24.07068550012723</v>
+      </c>
+      <c r="AZ47">
+        <f>AZ46/60</f>
+        <v>2.8411971672817429</v>
+      </c>
+      <c r="BA47">
+        <f>BA46/60</f>
+        <v>0.61213289256449044</v>
+      </c>
+      <c r="BB47">
+        <f>AVERAGE(D47:AZ47)</f>
         <v>10.399342903812432</v>
       </c>
     </row>
@@ -10502,6 +12235,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11437,7 +13171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B382073-CFF5-47DD-A964-7F3A1AFD406E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
